--- a/data/Antenna/BoresightGainDataHelicalAntennas.xlsx
+++ b/data/Antenna/BoresightGainDataHelicalAntennas.xlsx
@@ -13,15 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Boresight Gain (dBi)</t>
-  </si>
-  <si>
-    <t>S21 (dB)</t>
+    <t>Gain (dBi)</t>
   </si>
   <si>
     <t>Return Loss (dB)</t>
@@ -70,16 +67,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.36328125" customWidth="true"/>
-    <col min="2" max="2" width="17.36328125" customWidth="true"/>
-    <col min="3" max="3" width="12.08984375" customWidth="true"/>
-    <col min="4" max="4" width="14.453125" customWidth="true"/>
+    <col min="2" max="2" width="14.453125" customWidth="true"/>
+    <col min="3" max="3" width="14.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -92,22 +88,16 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
         <v>1000000000</v>
       </c>
       <c r="B2" s="0">
-        <v>-10.448746913167511</v>
+        <v>-11.008595878716942</v>
       </c>
       <c r="C2" s="0">
-        <v>-57.124579391074668</v>
-      </c>
-      <c r="D2" s="0">
-        <v>-1.0971431239715488</v>
+        <v>-1.0970920240398798</v>
       </c>
     </row>
     <row r="3">
@@ -115,13 +105,10 @@
         <v>1015000000</v>
       </c>
       <c r="B3" s="0">
-        <v>-11.072626313596253</v>
+        <v>-11.212376549828384</v>
       </c>
       <c r="C3" s="0">
-        <v>-58.501659036916777</v>
-      </c>
-      <c r="D3" s="0">
-        <v>-0.94350545247216067</v>
+        <v>-0.92781794077833435</v>
       </c>
     </row>
     <row r="4">
@@ -129,13 +116,10 @@
         <v>1030000000</v>
       </c>
       <c r="B4" s="0">
-        <v>-13.051443726934824</v>
+        <v>-13.624513360781382</v>
       </c>
       <c r="C4" s="0">
-        <v>-62.586717512712738</v>
-      </c>
-      <c r="D4" s="0">
-        <v>-1.4005231091657904</v>
+        <v>-1.4033348642067847</v>
       </c>
     </row>
     <row r="5">
@@ -143,13 +127,10 @@
         <v>1045000000</v>
       </c>
       <c r="B5" s="0">
-        <v>-12.278769524355699</v>
+        <v>-12.282942531738357</v>
       </c>
       <c r="C5" s="0">
-        <v>-61.166950422392496</v>
-      </c>
-      <c r="D5" s="0">
-        <v>-3.014192382680652</v>
+        <v>-3.0006418771069612</v>
       </c>
     </row>
     <row r="6">
@@ -157,13 +138,10 @@
         <v>1060000000</v>
       </c>
       <c r="B6" s="0">
-        <v>-10.112285853045588</v>
+        <v>-10.380894066791196</v>
       </c>
       <c r="C6" s="0">
-        <v>-56.957774576126226</v>
-      </c>
-      <c r="D6" s="0">
-        <v>-7.2100345419382954</v>
+        <v>-7.1429221869842312</v>
       </c>
     </row>
     <row r="7">
@@ -171,13 +149,10 @@
         <v>1075000000</v>
       </c>
       <c r="B7" s="0">
-        <v>-11.344261895849176</v>
+        <v>-12.003576974071461</v>
       </c>
       <c r="C7" s="0">
-        <v>-59.543778641470482</v>
-      </c>
-      <c r="D7" s="0">
-        <v>-3.4768888243343943</v>
+        <v>-3.4666450300920997</v>
       </c>
     </row>
     <row r="8">
@@ -185,13 +160,10 @@
         <v>1090000000</v>
       </c>
       <c r="B8" s="0">
-        <v>-15.139587839057004</v>
+        <v>-13.854136390931313</v>
       </c>
       <c r="C8" s="0">
-        <v>-67.254791201666123</v>
-      </c>
-      <c r="D8" s="0">
-        <v>-1.6369330369617783</v>
+        <v>-1.6487386151290653</v>
       </c>
     </row>
     <row r="9">
@@ -199,13 +171,10 @@
         <v>1105000000</v>
       </c>
       <c r="B9" s="0">
-        <v>-14.774060809953735</v>
+        <v>-14.032527606266502</v>
       </c>
       <c r="C9" s="0">
-        <v>-66.642452745069704</v>
-      </c>
-      <c r="D9" s="0">
-        <v>-1.5470363368482623</v>
+        <v>-1.5331971239618489</v>
       </c>
     </row>
     <row r="10">
@@ -213,13 +182,10 @@
         <v>1120000000</v>
       </c>
       <c r="B10" s="0">
-        <v>-11.043580968167937</v>
+        <v>-11.513989302604067</v>
       </c>
       <c r="C10" s="0">
-        <v>-59.298607954479152</v>
-      </c>
-      <c r="D10" s="0">
-        <v>-2.4513549768381244</v>
+        <v>-2.4449845776686758</v>
       </c>
     </row>
     <row r="11">
@@ -227,13 +193,10 @@
         <v>1135000000</v>
       </c>
       <c r="B11" s="0">
-        <v>-6.9742076570848752</v>
+        <v>-7.5844834681066899</v>
       </c>
       <c r="C11" s="0">
-        <v>-51.275418109492222</v>
-      </c>
-      <c r="D11" s="0">
-        <v>-6.0249731296830937</v>
+        <v>-5.95208222992638</v>
       </c>
     </row>
     <row r="12">
@@ -241,13 +204,10 @@
         <v>1150000000</v>
       </c>
       <c r="B12" s="0">
-        <v>-6.6891997741569398</v>
+        <v>-6.7179094830126544</v>
       </c>
       <c r="C12" s="0">
-        <v>-50.819441920125755</v>
-      </c>
-      <c r="D12" s="0">
-        <v>-6.0132786359754276</v>
+        <v>-6.0015980979064674</v>
       </c>
     </row>
     <row r="13">
@@ -255,13 +215,10 @@
         <v>1165000000</v>
       </c>
       <c r="B13" s="0">
-        <v>-9.6550934451138062</v>
+        <v>-10.122883473242723</v>
       </c>
       <c r="C13" s="0">
-        <v>-56.863790962208007</v>
-      </c>
-      <c r="D13" s="0">
-        <v>-2.5982216675234397</v>
+        <v>-2.6004560500297504</v>
       </c>
     </row>
     <row r="14">
@@ -269,13 +226,10 @@
         <v>1180000000</v>
       </c>
       <c r="B14" s="0">
-        <v>-13.164925530125689</v>
+        <v>-14.251734199515067</v>
       </c>
       <c r="C14" s="0">
-        <v>-63.994576771113529</v>
-      </c>
-      <c r="D14" s="0">
-        <v>-1.6017639456322579</v>
+        <v>-1.6164343928853335</v>
       </c>
     </row>
     <row r="15">
@@ -283,13 +237,10 @@
         <v>1195000000</v>
       </c>
       <c r="B15" s="0">
-        <v>-11.518229279494555</v>
+        <v>-11.499140099641462</v>
       </c>
       <c r="C15" s="0">
-        <v>-60.810902229411887</v>
-      </c>
-      <c r="D15" s="0">
-        <v>-1.4424431036335443</v>
+        <v>-1.4297034701125957</v>
       </c>
     </row>
     <row r="16">
@@ -297,13 +248,10 @@
         <v>1210000000</v>
       </c>
       <c r="B16" s="0">
-        <v>-14.837225186080811</v>
+        <v>-13.524845342971187</v>
       </c>
       <c r="C16" s="0">
-        <v>-67.557243343230269</v>
-      </c>
-      <c r="D16" s="0">
-        <v>-2.1092818430118805</v>
+        <v>-2.1246623258036084</v>
       </c>
     </row>
     <row r="17">
@@ -311,13 +259,10 @@
         <v>1225000000</v>
       </c>
       <c r="B17" s="0">
-        <v>-9.1469311433977616</v>
+        <v>-9.2349756272518597</v>
       </c>
       <c r="C17" s="0">
-        <v>-56.283669625546189</v>
-      </c>
-      <c r="D17" s="0">
-        <v>-4.7809786403450492</v>
+        <v>-4.7257496839705873</v>
       </c>
     </row>
     <row r="18">
@@ -325,13 +270,10 @@
         <v>1240000000</v>
       </c>
       <c r="B18" s="0">
-        <v>-7.7199348433593187</v>
+        <v>-7.2071612294493832</v>
       </c>
       <c r="C18" s="0">
-        <v>-53.535388954702981</v>
-      </c>
-      <c r="D18" s="0">
-        <v>-6.6664675763683023</v>
+        <v>-6.635836231408339</v>
       </c>
     </row>
     <row r="19">
@@ -339,13 +281,10 @@
         <v>1255000000</v>
       </c>
       <c r="B19" s="0">
-        <v>-14.501301367710692</v>
+        <v>-14.204377913231976</v>
       </c>
       <c r="C19" s="0">
-        <v>-67.202562816502166</v>
-      </c>
-      <c r="D19" s="0">
-        <v>-3.0402199098492586</v>
+        <v>-3.023775450266518</v>
       </c>
     </row>
     <row r="20">
@@ -353,13 +292,10 @@
         <v>1270000000</v>
       </c>
       <c r="B20" s="0">
-        <v>-5.1219936143902949</v>
+        <v>-5.2149070864246845</v>
       </c>
       <c r="C20" s="0">
-        <v>-48.547147212639373</v>
-      </c>
-      <c r="D20" s="0">
-        <v>-1.7876039814971185</v>
+        <v>-1.7930542724802296</v>
       </c>
     </row>
     <row r="21">
@@ -367,13 +303,10 @@
         <v>1285000000</v>
       </c>
       <c r="B21" s="0">
-        <v>-3.5717892472357633</v>
+        <v>-3.5412986059001526</v>
       </c>
       <c r="C21" s="0">
-        <v>-45.548726612557431</v>
-      </c>
-      <c r="D21" s="0">
-        <v>-1.5619714577505048</v>
+        <v>-1.5870625689972637</v>
       </c>
     </row>
     <row r="22">
@@ -381,13 +314,10 @@
         <v>1300000000</v>
       </c>
       <c r="B22" s="0">
-        <v>-4.607000839043323</v>
+        <v>-4.5600949160973734</v>
       </c>
       <c r="C22" s="0">
-        <v>-47.719954288963024</v>
-      </c>
-      <c r="D22" s="0">
-        <v>-2.0399162074411499</v>
+        <v>-2.0511938016921492</v>
       </c>
     </row>
     <row r="23">
@@ -395,13 +325,10 @@
         <v>1315000000</v>
       </c>
       <c r="B23" s="0">
-        <v>-9.5910275359004729</v>
+        <v>-9.9340135225116093</v>
       </c>
       <c r="C23" s="0">
-        <v>-57.787655693056124</v>
-      </c>
-      <c r="D23" s="0">
-        <v>-4.4457461251463108</v>
+        <v>-4.413687278404975</v>
       </c>
     </row>
     <row r="24">
@@ -409,13 +336,10 @@
         <v>1330000000</v>
       </c>
       <c r="B24" s="0">
-        <v>-4.8160908707453522</v>
+        <v>-5.0403644796930074</v>
       </c>
       <c r="C24" s="0">
-        <v>-48.336300125572066</v>
-      </c>
-      <c r="D24" s="0">
-        <v>-8.8839013031397229</v>
+        <v>-8.811534794344178</v>
       </c>
     </row>
     <row r="25">
@@ -423,13 +347,10 @@
         <v>1345000000</v>
       </c>
       <c r="B25" s="0">
-        <v>-3.2266845043786567</v>
+        <v>-3.3431817179841801</v>
       </c>
       <c r="C25" s="0">
-        <v>-45.254900260265494</v>
-      </c>
-      <c r="D25" s="0">
-        <v>-5.0137625305361722</v>
+        <v>-5.0117861003409274</v>
       </c>
     </row>
     <row r="26">
@@ -437,13 +358,10 @@
         <v>1360000000</v>
       </c>
       <c r="B26" s="0">
-        <v>-5.4786483637529599</v>
+        <v>-5.6979780960830482</v>
       </c>
       <c r="C26" s="0">
-        <v>-49.855160459649916</v>
-      </c>
-      <c r="D26" s="0">
-        <v>-2.4574030696398284</v>
+        <v>-2.4661176790737289</v>
       </c>
     </row>
     <row r="27">
@@ -451,13 +369,10 @@
         <v>1375000000</v>
       </c>
       <c r="B27" s="0">
-        <v>-9.2922051183064767</v>
+        <v>-8.4043384892886905</v>
       </c>
       <c r="C27" s="0">
-        <v>-57.577549764678224</v>
-      </c>
-      <c r="D27" s="0">
-        <v>-1.7390625315013124</v>
+        <v>-1.7637418497250781</v>
       </c>
     </row>
     <row r="28">
@@ -465,13 +380,10 @@
         <v>1390000000</v>
       </c>
       <c r="B28" s="0">
-        <v>-10.847597156850288</v>
+        <v>-10.378840607996974</v>
       </c>
       <c r="C28" s="0">
-        <v>-60.782575883522121</v>
-      </c>
-      <c r="D28" s="0">
-        <v>-2.2275589277848851</v>
+        <v>-2.234828059685726</v>
       </c>
     </row>
     <row r="29">
@@ -479,13 +391,10 @@
         <v>1405000000</v>
       </c>
       <c r="B29" s="0">
-        <v>-4.5658418226819606</v>
+        <v>-4.5895535803952896</v>
       </c>
       <c r="C29" s="0">
-        <v>-48.312295694925538</v>
-      </c>
-      <c r="D29" s="0">
-        <v>-5.0136852885232734</v>
+        <v>-4.9922777285613469</v>
       </c>
     </row>
     <row r="30">
@@ -493,13 +402,10 @@
         <v>1420000000</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.55926032352382293</v>
+        <v>-0.45493597932570395</v>
       </c>
       <c r="C30" s="0">
-        <v>-40.391373099448415</v>
-      </c>
-      <c r="D30" s="0">
-        <v>-12.626794241119285</v>
+        <v>-12.586343054293172</v>
       </c>
     </row>
     <row r="31">
@@ -507,13 +413,10 @@
         <v>1435000000</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.60400221340527338</v>
+        <v>-0.65562548485315375</v>
       </c>
       <c r="C31" s="0">
-        <v>-40.572128012950408</v>
-      </c>
-      <c r="D31" s="0">
-        <v>-6.6953037442810199</v>
+        <v>-6.6026753373682983</v>
       </c>
     </row>
     <row r="32">
@@ -521,13 +424,10 @@
         <v>1450000000</v>
       </c>
       <c r="B32" s="0">
-        <v>-7.6631409727385282</v>
+        <v>-7.3877761053244093</v>
       </c>
       <c r="C32" s="0">
-        <v>-54.780727554916197</v>
-      </c>
-      <c r="D32" s="0">
-        <v>-3.7168467777294389</v>
+        <v>-3.7394679311136816</v>
       </c>
     </row>
     <row r="33">
@@ -535,13 +435,10 @@
         <v>1465000000</v>
       </c>
       <c r="B33" s="0">
-        <v>-0.161896495145605</v>
+        <v>-0.20879068888451968</v>
       </c>
       <c r="C33" s="0">
-        <v>-39.867631048833417</v>
-      </c>
-      <c r="D33" s="0">
-        <v>-2.7796731112121957</v>
+        <v>-2.7688447934912848</v>
       </c>
     </row>
     <row r="34">
@@ -549,13 +446,10 @@
         <v>1480000000</v>
       </c>
       <c r="B34" s="0">
-        <v>2.6208904322653375</v>
+        <v>2.5895608740772929</v>
       </c>
       <c r="C34" s="0">
-        <v>-34.390539008108114</v>
-      </c>
-      <c r="D34" s="0">
-        <v>-2.9769967533878243</v>
+        <v>-2.9903441689284103</v>
       </c>
     </row>
     <row r="35">
@@ -563,13 +457,10 @@
         <v>1495000000</v>
       </c>
       <c r="B35" s="0">
-        <v>3.1433261454617671</v>
+        <v>3.1623553268734348</v>
       </c>
       <c r="C35" s="0">
-        <v>-33.43325712702508</v>
-      </c>
-      <c r="D35" s="0">
-        <v>-4.7825501911535051</v>
+        <v>-4.7642096465189203</v>
       </c>
     </row>
     <row r="36">
@@ -577,13 +468,10 @@
         <v>1510000000</v>
       </c>
       <c r="B36" s="0">
-        <v>1.6528092538449748</v>
+        <v>1.6864356078610534</v>
       </c>
       <c r="C36" s="0">
-        <v>-36.50100600291308</v>
-      </c>
-      <c r="D36" s="0">
-        <v>-11.690970189756044</v>
+        <v>-11.63819023719849</v>
       </c>
     </row>
     <row r="37">
@@ -591,13 +479,10 @@
         <v>1525000000</v>
       </c>
       <c r="B37" s="0">
-        <v>-1.8496140926505866</v>
+        <v>-1.8570141494956118</v>
       </c>
       <c r="C37" s="0">
-        <v>-43.591710623696905</v>
-      </c>
-      <c r="D37" s="0">
-        <v>-8.8774515828170237</v>
+        <v>-8.8143869125391046</v>
       </c>
     </row>
     <row r="38">
@@ -605,13 +490,10 @@
         <v>1540000000</v>
       </c>
       <c r="B38" s="0">
-        <v>-2.6478786435849138</v>
+        <v>-2.6099357453783263</v>
       </c>
       <c r="C38" s="0">
-        <v>-45.27325726863873</v>
-      </c>
-      <c r="D38" s="0">
-        <v>-3.8779461882217685</v>
+        <v>-3.8448047535527201</v>
       </c>
     </row>
     <row r="39">
@@ -619,13 +501,10 @@
         <v>1555000000</v>
       </c>
       <c r="B39" s="0">
-        <v>-5.082370672809958</v>
+        <v>-5.6039777193241171</v>
       </c>
       <c r="C39" s="0">
-        <v>-50.226434777616682</v>
-      </c>
-      <c r="D39" s="0">
-        <v>-2.307278345338772</v>
+        <v>-2.3011104798069599</v>
       </c>
     </row>
     <row r="40">
@@ -633,13 +512,10 @@
         <v>1570000000</v>
       </c>
       <c r="B40" s="0">
-        <v>-1.4310441535735201</v>
+        <v>-1.3616960580081674</v>
       </c>
       <c r="C40" s="0">
-        <v>-43.007166920071363</v>
-      </c>
-      <c r="D40" s="0">
-        <v>-2.8854960297998105</v>
+        <v>-2.8726155806048173</v>
       </c>
     </row>
     <row r="41">
@@ -647,13 +523,10 @@
         <v>1585000000</v>
       </c>
       <c r="B41" s="0">
-        <v>-2.1127841902690854</v>
+        <v>-2.2311625533557624</v>
       </c>
       <c r="C41" s="0">
-        <v>-44.453239276353223</v>
-      </c>
-      <c r="D41" s="0">
-        <v>-6.6867184504402468</v>
+        <v>-6.6511133936663471</v>
       </c>
     </row>
     <row r="42">
@@ -661,13 +534,10 @@
         <v>1600000000</v>
       </c>
       <c r="B42" s="0">
-        <v>4.1224870513151544</v>
+        <v>4.1442033938642524</v>
       </c>
       <c r="C42" s="0">
-        <v>-32.06451111522783</v>
-      </c>
-      <c r="D42" s="0">
-        <v>-18.108483754344576</v>
+        <v>-18.333056121809001</v>
       </c>
     </row>
     <row r="43">
@@ -675,13 +545,10 @@
         <v>1615000000</v>
       </c>
       <c r="B43" s="0">
-        <v>5.5427641563935417</v>
+        <v>5.5632213053806137</v>
       </c>
       <c r="C43" s="0">
-        <v>-29.30500778529499</v>
-      </c>
-      <c r="D43" s="0">
-        <v>-10.873989675238128</v>
+        <v>-10.856620541558314</v>
       </c>
     </row>
     <row r="44">
@@ -689,13 +556,10 @@
         <v>1630000000</v>
       </c>
       <c r="B44" s="0">
-        <v>5.2474177616623621</v>
+        <v>5.2802639651755303</v>
       </c>
       <c r="C44" s="0">
-        <v>-29.976002129494077</v>
-      </c>
-      <c r="D44" s="0">
-        <v>-6.6406568412854261</v>
+        <v>-6.5749430779056741</v>
       </c>
     </row>
     <row r="45">
@@ -703,13 +567,10 @@
         <v>1645000000</v>
       </c>
       <c r="B45" s="0">
-        <v>2.8451828449264696</v>
+        <v>2.8728622246342148</v>
       </c>
       <c r="C45" s="0">
-        <v>-34.860037920606565</v>
-      </c>
-      <c r="D45" s="0">
-        <v>-4.1850058959813694</v>
+        <v>-4.1824394077412403</v>
       </c>
     </row>
     <row r="46">
@@ -717,13 +578,10 @@
         <v>1660000000</v>
       </c>
       <c r="B46" s="0">
-        <v>-6.4817424746201588</v>
+        <v>-6.6115982909478284</v>
       </c>
       <c r="C46" s="0">
-        <v>-53.592732274781063</v>
-      </c>
-      <c r="D46" s="0">
-        <v>-6.6886475470352593</v>
+        <v>-6.5902719177240696</v>
       </c>
     </row>
     <row r="47">
@@ -731,13 +589,10 @@
         <v>1675000000</v>
       </c>
       <c r="B47" s="0">
-        <v>0.66366966983273556</v>
+        <v>0.63127824423520451</v>
       </c>
       <c r="C47" s="0">
-        <v>-39.380042452531455</v>
-      </c>
-      <c r="D47" s="0">
-        <v>-7.9627526006414495</v>
+        <v>-7.8904370846412828</v>
       </c>
     </row>
     <row r="48">
@@ -745,13 +600,10 @@
         <v>1690000000</v>
       </c>
       <c r="B48" s="0">
-        <v>6.1595217204652393</v>
+        <v>6.0986540906708022</v>
       </c>
       <c r="C48" s="0">
-        <v>-28.465776216082631</v>
-      </c>
-      <c r="D48" s="0">
-        <v>-5.8090271768925721</v>
+        <v>-5.8180140783211876</v>
       </c>
     </row>
     <row r="49">
@@ -759,13 +611,10 @@
         <v>1705000000</v>
       </c>
       <c r="B49" s="0">
-        <v>7.8107784896569949</v>
+        <v>7.7795797279392218</v>
       </c>
       <c r="C49" s="0">
-        <v>-25.240016251995986</v>
-      </c>
-      <c r="D49" s="0">
-        <v>-6.4413155901959493</v>
+        <v>-6.3618816456173004</v>
       </c>
     </row>
     <row r="50">
@@ -773,13 +622,10 @@
         <v>1720000000</v>
       </c>
       <c r="B50" s="0">
-        <v>8.2197428355300701</v>
+        <v>8.2153548852782912</v>
       </c>
       <c r="C50" s="0">
-        <v>-24.498168831830483</v>
-      </c>
-      <c r="D50" s="0">
-        <v>-7.345273239543233</v>
+        <v>-7.3653202164246103</v>
       </c>
     </row>
     <row r="51">
@@ -787,13 +633,10 @@
         <v>1735000000</v>
       </c>
       <c r="B51" s="0">
-        <v>8.5460340092557523</v>
+        <v>8.526544400649108</v>
       </c>
       <c r="C51" s="0">
-        <v>-23.921007128765993</v>
-      </c>
-      <c r="D51" s="0">
-        <v>-8.1014359825370228</v>
+        <v>-8.1110580027633485</v>
       </c>
     </row>
     <row r="52">
@@ -801,13 +644,10 @@
         <v>1750000000</v>
       </c>
       <c r="B52" s="0">
-        <v>8.8178184713516821</v>
+        <v>8.7654255181501153</v>
       </c>
       <c r="C52" s="0">
-        <v>-23.452209595762163</v>
-      </c>
-      <c r="D52" s="0">
-        <v>-8.1198410869910891</v>
+        <v>-8.0201877608241237</v>
       </c>
     </row>
     <row r="53">
@@ -815,13 +655,10 @@
         <v>1765000000</v>
       </c>
       <c r="B53" s="0">
-        <v>8.9890439851912767</v>
+        <v>8.915214666093668</v>
       </c>
       <c r="C53" s="0">
-        <v>-23.183891788833918</v>
-      </c>
-      <c r="D53" s="0">
-        <v>-8.2005536975642848</v>
+        <v>-8.2526797911637999</v>
       </c>
     </row>
     <row r="54">
@@ -829,13 +666,10 @@
         <v>1780000000</v>
       </c>
       <c r="B54" s="0">
-        <v>9.1034431306169399</v>
+        <v>9.019941973187553</v>
       </c>
       <c r="C54" s="0">
-        <v>-23.028599349683642</v>
-      </c>
-      <c r="D54" s="0">
-        <v>-8.9330948406324477</v>
+        <v>-8.8981918325180924</v>
       </c>
     </row>
     <row r="55">
@@ -843,13 +677,10 @@
         <v>1795000000</v>
       </c>
       <c r="B55" s="0">
-        <v>9.1628038484714747</v>
+        <v>9.0622477678211606</v>
       </c>
       <c r="C55" s="0">
-        <v>-22.982766926083453</v>
-      </c>
-      <c r="D55" s="0">
-        <v>-8.9524625657599213</v>
+        <v>-8.8841753324517079</v>
       </c>
     </row>
     <row r="56">
@@ -857,13 +688,10 @@
         <v>1810000000</v>
       </c>
       <c r="B56" s="0">
-        <v>9.2033875393861635</v>
+        <v>9.0752946642774326</v>
       </c>
       <c r="C56" s="0">
-        <v>-22.973881983351006</v>
-      </c>
-      <c r="D56" s="0">
-        <v>-8.9698468735191135</v>
+        <v>-9.0106314226369619</v>
       </c>
     </row>
     <row r="57">
@@ -871,13 +699,10 @@
         <v>1825000000</v>
       </c>
       <c r="B57" s="0">
-        <v>9.2454060990922002</v>
+        <v>9.1210064245754658</v>
       </c>
       <c r="C57" s="0">
-        <v>-22.961530742405117</v>
-      </c>
-      <c r="D57" s="0">
-        <v>-9.8483076370959708</v>
+        <v>-9.7625181156857117</v>
       </c>
     </row>
     <row r="58">
@@ -885,13 +710,10 @@
         <v>1840000000</v>
       </c>
       <c r="B58" s="0">
-        <v>9.2302202731336518</v>
+        <v>9.1541600584728915</v>
       </c>
       <c r="C58" s="0">
-        <v>-23.063001478663065</v>
-      </c>
-      <c r="D58" s="0">
-        <v>-10.163597189408373</v>
+        <v>-10.032728438039873</v>
       </c>
     </row>
     <row r="59">
@@ -899,13 +721,10 @@
         <v>1855000000</v>
       </c>
       <c r="B59" s="0">
-        <v>9.2907165045076567</v>
+        <v>9.2875620896339406</v>
       </c>
       <c r="C59" s="0">
-        <v>-23.012530834745625</v>
-      </c>
-      <c r="D59" s="0">
-        <v>-10.256462698135262</v>
+        <v>-10.251704177647202</v>
       </c>
     </row>
     <row r="60">
@@ -913,13 +732,10 @@
         <v>1870000000</v>
       </c>
       <c r="B60" s="0">
-        <v>9.3727556012031865</v>
+        <v>9.4188618440108574</v>
       </c>
       <c r="C60" s="0">
-        <v>-22.918406493063248</v>
-      </c>
-      <c r="D60" s="0">
-        <v>-11.026020746800569</v>
+        <v>-10.898513809673878</v>
       </c>
     </row>
     <row r="61">
@@ -927,13 +743,10 @@
         <v>1885000000</v>
       </c>
       <c r="B61" s="0">
-        <v>9.5410581602824607</v>
+        <v>9.5864390554941288</v>
       </c>
       <c r="C61" s="0">
-        <v>-22.651196335010951</v>
-      </c>
-      <c r="D61" s="0">
-        <v>-11.659926548714466</v>
+        <v>-11.380567669493988</v>
       </c>
     </row>
     <row r="62">
@@ -941,13 +754,10 @@
         <v>1900000000</v>
       </c>
       <c r="B62" s="0">
-        <v>9.7098180589396392</v>
+        <v>9.7327320509359101</v>
       </c>
       <c r="C62" s="0">
-        <v>-22.382521465916952</v>
-      </c>
-      <c r="D62" s="0">
-        <v>-12.001287077522612</v>
+        <v>-11.776129741639942</v>
       </c>
     </row>
     <row r="63">
@@ -955,13 +765,10 @@
         <v>1915000000</v>
       </c>
       <c r="B63" s="0">
-        <v>9.8664206990698489</v>
+        <v>9.8779138668531523</v>
       </c>
       <c r="C63" s="0">
-        <v>-22.137619732692777</v>
-      </c>
-      <c r="D63" s="0">
-        <v>-12.392556738436976</v>
+        <v>-11.997812293628893</v>
       </c>
     </row>
     <row r="64">
@@ -969,13 +776,10 @@
         <v>1930000000</v>
       </c>
       <c r="B64" s="0">
-        <v>10.059102766995771</v>
+        <v>10.047479292360386</v>
       </c>
       <c r="C64" s="0">
-        <v>-21.820026210903578</v>
-      </c>
-      <c r="D64" s="0">
-        <v>-13.456107269508069</v>
+        <v>-12.725735916509848</v>
       </c>
     </row>
     <row r="65">
@@ -983,13 +787,10 @@
         <v>1945000000</v>
       </c>
       <c r="B65" s="0">
-        <v>10.220231109554092</v>
+        <v>10.193101595377119</v>
       </c>
       <c r="C65" s="0">
-        <v>-21.565015458865986</v>
-      </c>
-      <c r="D65" s="0">
-        <v>-14.124472949047359</v>
+        <v>-13.382773996977944</v>
       </c>
     </row>
     <row r="66">
@@ -997,13 +798,10 @@
         <v>1960000000</v>
       </c>
       <c r="B66" s="0">
-        <v>10.377177618738394</v>
+        <v>10.336045036416568</v>
       </c>
       <c r="C66" s="0">
-        <v>-21.317851754392372</v>
-      </c>
-      <c r="D66" s="0">
-        <v>-14.130936950684498</v>
+        <v>-13.541481018870138</v>
       </c>
     </row>
     <row r="67">
@@ -1011,13 +809,10 @@
         <v>1975000000</v>
       </c>
       <c r="B67" s="0">
-        <v>10.533836461800274</v>
+        <v>10.493191263634507</v>
       </c>
       <c r="C67" s="0">
-        <v>-21.070754640388678</v>
-      </c>
-      <c r="D67" s="0">
-        <v>-15.079367227495572</v>
+        <v>-14.321213196438066</v>
       </c>
     </row>
     <row r="68">
@@ -1025,13 +820,10 @@
         <v>1990000000</v>
       </c>
       <c r="B68" s="0">
-        <v>10.69307862845881</v>
+        <v>10.662668687227427</v>
       </c>
       <c r="C68" s="0">
-        <v>-20.81798983601616</v>
-      </c>
-      <c r="D68" s="0">
-        <v>-15.822972802409115</v>
+        <v>-15.354978324320825</v>
       </c>
     </row>
     <row r="69">
@@ -1039,13 +831,10 @@
         <v>2005000000</v>
       </c>
       <c r="B69" s="0">
-        <v>10.925676422670918</v>
+        <v>10.919095763389709</v>
       </c>
       <c r="C69" s="0">
-        <v>-20.418020258521835</v>
-      </c>
-      <c r="D69" s="0">
-        <v>-15.150890355136138</v>
+        <v>-15.084390270714625</v>
       </c>
     </row>
     <row r="70">
@@ -1053,13 +842,10 @@
         <v>2020000000</v>
       </c>
       <c r="B70" s="0">
-        <v>11.034920954902255</v>
+        <v>11.031196539998025</v>
       </c>
       <c r="C70" s="0">
-        <v>-20.264271043867609</v>
-      </c>
-      <c r="D70" s="0">
-        <v>-15.749143600162848</v>
+        <v>-15.627506653201866</v>
       </c>
     </row>
     <row r="71">
@@ -1067,13 +853,10 @@
         <v>2035000000</v>
       </c>
       <c r="B71" s="0">
-        <v>10.977318063408712</v>
+        <v>10.975100648625778</v>
       </c>
       <c r="C71" s="0">
-        <v>-20.443737709146998</v>
-      </c>
-      <c r="D71" s="0">
-        <v>-16.049519168398611</v>
+        <v>-16.081203636210773</v>
       </c>
     </row>
     <row r="72">
@@ -1081,13 +864,10 @@
         <v>2050000000</v>
       </c>
       <c r="B72" s="0">
-        <v>11.065623353933631</v>
+        <v>11.05631416336483</v>
       </c>
       <c r="C72" s="0">
-        <v>-20.330916077987467</v>
-      </c>
-      <c r="D72" s="0">
-        <v>-15.355631346433842</v>
+        <v>-15.506087138992491</v>
       </c>
     </row>
     <row r="73">
@@ -1095,13 +875,10 @@
         <v>2065000000</v>
       </c>
       <c r="B73" s="0">
-        <v>11.134520622442214</v>
+        <v>11.140734793214595</v>
       </c>
       <c r="C73" s="0">
-        <v>-20.256445439703612</v>
-      </c>
-      <c r="D73" s="0">
-        <v>-15.887350336690783</v>
+        <v>-16.071850184947291</v>
       </c>
     </row>
     <row r="74">
@@ -1109,13 +886,10 @@
         <v>2080000000</v>
       </c>
       <c r="B74" s="0">
-        <v>11.227419879769567</v>
+        <v>11.229397745159025</v>
       </c>
       <c r="C74" s="0">
-        <v>-20.133512504455737</v>
-      </c>
-      <c r="D74" s="0">
-        <v>-16.767707681012325</v>
+        <v>-17.141905654171687</v>
       </c>
     </row>
     <row r="75">
@@ -1123,13 +897,10 @@
         <v>2095000000</v>
       </c>
       <c r="B75" s="0">
-        <v>11.289460156122873</v>
+        <v>11.284858857759684</v>
       </c>
       <c r="C75" s="0">
-        <v>-20.071845798540178</v>
-      </c>
-      <c r="D75" s="0">
-        <v>-16.447949860127146</v>
+        <v>-16.591337632798449</v>
       </c>
     </row>
     <row r="76">
@@ -1137,13 +908,10 @@
         <v>2110000000</v>
       </c>
       <c r="B76" s="0">
-        <v>11.361187445925447</v>
+        <v>11.354881813100429</v>
       </c>
       <c r="C76" s="0">
-        <v>-19.990359778842599</v>
-      </c>
-      <c r="D76" s="0">
-        <v>-17.406173857114165</v>
+        <v>-17.686115830867951</v>
       </c>
     </row>
     <row r="77">
@@ -1151,13 +919,10 @@
         <v>2125000000</v>
       </c>
       <c r="B77" s="0">
-        <v>11.398505426030811</v>
+        <v>11.395675230215955</v>
       </c>
       <c r="C77" s="0">
-        <v>-19.977253400404624</v>
-      </c>
-      <c r="D77" s="0">
-        <v>-19.204793776684753</v>
+        <v>-19.910510055895411</v>
       </c>
     </row>
     <row r="78">
@@ -1165,13 +930,10 @@
         <v>2140000000</v>
       </c>
       <c r="B78" s="0">
-        <v>11.465080172905859</v>
+        <v>11.460333058583576</v>
       </c>
       <c r="C78" s="0">
-        <v>-19.905200685911741</v>
-      </c>
-      <c r="D78" s="0">
-        <v>-20.468995412454703</v>
+        <v>-20.821245901433983</v>
       </c>
     </row>
     <row r="79">
@@ -1179,13 +941,10 @@
         <v>2155000000</v>
       </c>
       <c r="B79" s="0">
-        <v>11.508090179406057</v>
+        <v>11.525849152705007</v>
       </c>
       <c r="C79" s="0">
-        <v>-19.879850695862537</v>
-      </c>
-      <c r="D79" s="0">
-        <v>-19.816024081944214</v>
+        <v>-20.172654374192387</v>
       </c>
     </row>
     <row r="80">
@@ -1193,13 +952,10 @@
         <v>2170000000</v>
       </c>
       <c r="B80" s="0">
-        <v>11.5506691602047</v>
+        <v>11.55293134298917</v>
       </c>
       <c r="C80" s="0">
-        <v>-19.854941921300831</v>
-      </c>
-      <c r="D80" s="0">
-        <v>-20.313340472911371</v>
+        <v>-21.051673062818878</v>
       </c>
     </row>
     <row r="81">
@@ -1207,13 +963,10 @@
         <v>2185000000</v>
       </c>
       <c r="B81" s="0">
-        <v>11.585847759339247</v>
+        <v>11.578881151813533</v>
       </c>
       <c r="C81" s="0">
-        <v>-19.844418872189959</v>
-      </c>
-      <c r="D81" s="0">
-        <v>-21.894483780952623</v>
+        <v>-22.488017504721999</v>
       </c>
     </row>
     <row r="82">
@@ -1221,13 +974,10 @@
         <v>2200000000</v>
       </c>
       <c r="B82" s="0">
-        <v>11.579644574903142</v>
+        <v>11.577519718770198</v>
       </c>
       <c r="C82" s="0">
-        <v>-19.91625003137748</v>
-      </c>
-      <c r="D82" s="0">
-        <v>-19.248587254254168</v>
+        <v>-19.670433299702612</v>
       </c>
     </row>
     <row r="83">
@@ -1235,13 +985,10 @@
         <v>2215000000</v>
       </c>
       <c r="B83" s="0">
-        <v>11.582846332735949</v>
+        <v>11.557924021087565</v>
       </c>
       <c r="C83" s="0">
-        <v>-19.96886751044951</v>
-      </c>
-      <c r="D83" s="0">
-        <v>-15.858132182096883</v>
+        <v>-16.138153980193401</v>
       </c>
     </row>
     <row r="84">
@@ -1249,13 +996,10 @@
         <v>2230000000</v>
       </c>
       <c r="B84" s="0">
-        <v>11.547940860078556</v>
+        <v>11.555080742847579</v>
       </c>
       <c r="C84" s="0">
-        <v>-20.097301105545743</v>
-      </c>
-      <c r="D84" s="0">
-        <v>-16.115653231825874</v>
+        <v>-16.216672574471296</v>
       </c>
     </row>
     <row r="85">
@@ -1263,13 +1007,10 @@
         <v>2245000000</v>
       </c>
       <c r="B85" s="0">
-        <v>11.552772881095965</v>
+        <v>11.568247397890008</v>
       </c>
       <c r="C85" s="0">
-        <v>-20.145866709334548</v>
-      </c>
-      <c r="D85" s="0">
-        <v>-15.457982670679213</v>
+        <v>-15.804243414935165</v>
       </c>
     </row>
     <row r="86">
@@ -1277,13 +1018,10 @@
         <v>2260000000</v>
       </c>
       <c r="B86" s="0">
-        <v>11.54098253778518</v>
+        <v>11.535634336502046</v>
       </c>
       <c r="C86" s="0">
-        <v>-20.227289272117304</v>
-      </c>
-      <c r="D86" s="0">
-        <v>-13.127992450354157</v>
+        <v>-13.248474419497917</v>
       </c>
     </row>
     <row r="87">
@@ -1291,13 +1029,10 @@
         <v>2275000000</v>
       </c>
       <c r="B87" s="0">
-        <v>11.566270282903854</v>
+        <v>11.581226763238691</v>
       </c>
       <c r="C87" s="0">
-        <v>-20.234173018794557</v>
-      </c>
-      <c r="D87" s="0">
-        <v>-13.070358545017292</v>
+        <v>-12.923682880772871</v>
       </c>
     </row>
     <row r="88">
@@ -1305,13 +1040,10 @@
         <v>2290000000</v>
       </c>
       <c r="B88" s="0">
-        <v>11.539057027307159</v>
+        <v>11.554069313842177</v>
       </c>
       <c r="C88" s="0">
-        <v>-20.345681156923078</v>
-      </c>
-      <c r="D88" s="0">
-        <v>-13.67092788025227</v>
+        <v>-13.863033859580325</v>
       </c>
     </row>
     <row r="89">
@@ -1319,13 +1051,10 @@
         <v>2305000000</v>
       </c>
       <c r="B89" s="0">
-        <v>11.532633644852565</v>
+        <v>11.550242491964941</v>
       </c>
       <c r="C89" s="0">
-        <v>-20.415236869547858</v>
-      </c>
-      <c r="D89" s="0">
-        <v>-12.793836553028498</v>
+        <v>-12.913270492984294</v>
       </c>
     </row>
     <row r="90">
@@ -1333,13 +1062,10 @@
         <v>2320000000</v>
       </c>
       <c r="B90" s="0">
-        <v>11.518737535803956</v>
+        <v>11.5129575874649</v>
       </c>
       <c r="C90" s="0">
-        <v>-20.499370190949723</v>
-      </c>
-      <c r="D90" s="0">
-        <v>-12.502077953757398</v>
+        <v>-12.37087593941839</v>
       </c>
     </row>
     <row r="91">
@@ -1347,13 +1073,10 @@
         <v>2335000000</v>
       </c>
       <c r="B91" s="0">
-        <v>11.540036534287967</v>
+        <v>11.538316377974972</v>
       </c>
       <c r="C91" s="0">
-        <v>-20.512750194206326</v>
-      </c>
-      <c r="D91" s="0">
-        <v>-13.697352814740483</v>
+        <v>-13.744804923090721</v>
       </c>
     </row>
     <row r="92">
@@ -1361,13 +1084,10 @@
         <v>2350000000</v>
       </c>
       <c r="B92" s="0">
-        <v>11.470791642212852</v>
+        <v>11.479318986310776</v>
       </c>
       <c r="C92" s="0">
-        <v>-20.706859525748662</v>
-      </c>
-      <c r="D92" s="0">
-        <v>-14.275813266539112</v>
+        <v>-14.584051507651125</v>
       </c>
     </row>
     <row r="93">
@@ -1375,13 +1095,10 @@
         <v>2365000000</v>
       </c>
       <c r="B93" s="0">
-        <v>11.421433990274316</v>
+        <v>11.433614293329136</v>
       </c>
       <c r="C93" s="0">
-        <v>-20.860840485667623</v>
-      </c>
-      <c r="D93" s="0">
-        <v>-13.627301995447292</v>
+        <v>-13.472591336470421</v>
       </c>
     </row>
     <row r="94">
@@ -1389,13 +1106,10 @@
         <v>2380000000</v>
       </c>
       <c r="B94" s="0">
-        <v>11.321479117363833</v>
+        <v>11.318249142798024</v>
       </c>
       <c r="C94" s="0">
-        <v>-21.11566647114222</v>
-      </c>
-      <c r="D94" s="0">
-        <v>-14.023094759606444</v>
+        <v>-13.969889784951821</v>
       </c>
     </row>
     <row r="95">
@@ -1403,13 +1117,10 @@
         <v>2395000000</v>
       </c>
       <c r="B95" s="0">
-        <v>11.226555883891953</v>
+        <v>11.222153566783483</v>
       </c>
       <c r="C95" s="0">
-        <v>-21.360084151967374</v>
-      </c>
-      <c r="D95" s="0">
-        <v>-15.055070544300516</v>
+        <v>-15.505728325136708</v>
       </c>
     </row>
     <row r="96">
@@ -1417,13 +1128,10 @@
         <v>2410000000</v>
       </c>
       <c r="B96" s="0">
-        <v>11.053431291891336</v>
+        <v>11.045109274354452</v>
       </c>
       <c r="C96" s="0">
-        <v>-21.760563832454338</v>
-      </c>
-      <c r="D96" s="0">
-        <v>-13.486907066498606</v>
+        <v>-13.373591118654915</v>
       </c>
     </row>
     <row r="97">
@@ -1431,13 +1139,10 @@
         <v>2425000000</v>
       </c>
       <c r="B97" s="0">
-        <v>10.823162990532612</v>
+        <v>10.822664837808375</v>
       </c>
       <c r="C97" s="0">
-        <v>-22.274994442440068</v>
-      </c>
-      <c r="D97" s="0">
-        <v>-12.192349234323723</v>
+        <v>-11.997110902101443</v>
       </c>
     </row>
     <row r="98">
@@ -1445,13 +1150,10 @@
         <v>2440000000</v>
       </c>
       <c r="B98" s="0">
-        <v>10.629254468535756</v>
+        <v>10.630572512312575</v>
       </c>
       <c r="C98" s="0">
-        <v>-22.716373154442721</v>
-      </c>
-      <c r="D98" s="0">
-        <v>-11.7953958104296</v>
+        <v>-12.099876543997375</v>
       </c>
     </row>
     <row r="99">
@@ -1459,13 +1161,10 @@
         <v>2455000000</v>
       </c>
       <c r="B99" s="0">
-        <v>10.374416030314199</v>
+        <v>10.376365244458729</v>
       </c>
       <c r="C99" s="0">
-        <v>-23.279283433290988</v>
-      </c>
-      <c r="D99" s="0">
-        <v>-10.537117998823417</v>
+        <v>-10.379641226899082</v>
       </c>
     </row>
     <row r="100">
@@ -1473,13 +1172,10 @@
         <v>2470000000</v>
       </c>
       <c r="B100" s="0">
-        <v>10.040801012645026</v>
+        <v>10.089201768913435</v>
       </c>
       <c r="C100" s="0">
-        <v>-23.999422604642902</v>
-      </c>
-      <c r="D100" s="0">
-        <v>-9.3766314508319475</v>
+        <v>-9.2378485311558158</v>
       </c>
     </row>
     <row r="101">
@@ -1487,13 +1183,10 @@
         <v>2485000000</v>
       </c>
       <c r="B101" s="0">
-        <v>9.7643179801346349</v>
+        <v>9.7715863685697482</v>
       </c>
       <c r="C101" s="0">
-        <v>-24.604977465857395</v>
-      </c>
-      <c r="D101" s="0">
-        <v>-9.1992224192362286</v>
+        <v>-9.4009311130645656</v>
       </c>
     </row>
     <row r="102">
@@ -1501,13 +1194,10 @@
         <v>2500000000</v>
       </c>
       <c r="B102" s="0">
-        <v>9.4667997366017929</v>
+        <v>9.4765513927993172</v>
       </c>
       <c r="C102" s="0">
-        <v>-25.252286264976817</v>
-      </c>
-      <c r="D102" s="0">
-        <v>-8.6109331375794653</v>
+        <v>-8.407226175825862</v>
       </c>
     </row>
     <row r="103">
@@ -1515,13 +1205,10 @@
         <v>2515000000</v>
       </c>
       <c r="B103" s="0">
-        <v>9.1359168451169648</v>
+        <v>9.1654347265864864</v>
       </c>
       <c r="C103" s="0">
-        <v>-25.966011662344645</v>
-      </c>
-      <c r="D103" s="0">
-        <v>-8.2685005300134851</v>
+        <v>-8.2768878911235717</v>
       </c>
     </row>
     <row r="104">
@@ -1529,13 +1216,10 @@
         <v>2530000000</v>
       </c>
       <c r="B104" s="0">
-        <v>8.8910290628899631</v>
+        <v>8.8951211045780259</v>
       </c>
       <c r="C104" s="0">
-        <v>-26.507437862476074</v>
-      </c>
-      <c r="D104" s="0">
-        <v>-8.3387771477057751</v>
+        <v>-8.5248999288800782</v>
       </c>
     </row>
     <row r="105">
@@ -1543,13 +1227,10 @@
         <v>2545000000</v>
       </c>
       <c r="B105" s="0">
-        <v>8.6117971115108496</v>
+        <v>8.5752225561494431</v>
       </c>
       <c r="C105" s="0">
-        <v>-27.117247075173488</v>
-      </c>
-      <c r="D105" s="0">
-        <v>-8.6944271875875287</v>
+        <v>-8.4628474078807816</v>
       </c>
     </row>
     <row r="106">
@@ -1557,13 +1238,10 @@
         <v>2560000000</v>
       </c>
       <c r="B106" s="0">
-        <v>8.2778393560223904</v>
+        <v>8.3014010398783267</v>
       </c>
       <c r="C106" s="0">
-        <v>-27.836206158931851</v>
-      </c>
-      <c r="D106" s="0">
-        <v>-8.7743749551517762</v>
+        <v>-8.8387938842869431</v>
       </c>
     </row>
     <row r="107">
@@ -1571,13 +1249,10 @@
         <v>2575000000</v>
       </c>
       <c r="B107" s="0">
-        <v>7.9063731415166121</v>
+        <v>7.908105928856024</v>
       </c>
       <c r="C107" s="0">
-        <v>-28.629883949250615</v>
-      </c>
-      <c r="D107" s="0">
-        <v>-9.6685168544993942</v>
+        <v>-9.8203582212099843</v>
       </c>
     </row>
     <row r="108">
@@ -1585,13 +1260,10 @@
         <v>2590000000</v>
       </c>
       <c r="B108" s="0">
-        <v>7.4275111154891569</v>
+        <v>7.4612317934304251</v>
       </c>
       <c r="C108" s="0">
-        <v>-29.638058615386363</v>
-      </c>
-      <c r="D108" s="0">
-        <v>-10.887953304175134</v>
+        <v>-10.57316400383456</v>
       </c>
     </row>
     <row r="109">
@@ -1599,13 +1271,10 @@
         <v>2605000000</v>
       </c>
       <c r="B109" s="0">
-        <v>6.8335811696566129</v>
+        <v>6.8256480422483161</v>
       </c>
       <c r="C109" s="0">
-        <v>-30.876077778137283</v>
-      </c>
-      <c r="D109" s="0">
-        <v>-10.537221795614704</v>
+        <v>-10.56436931430666</v>
       </c>
     </row>
     <row r="110">
@@ -1613,13 +1282,10 @@
         <v>2620000000</v>
       </c>
       <c r="B110" s="0">
-        <v>6.0689663801414007</v>
+        <v>6.0804665952257686</v>
       </c>
       <c r="C110" s="0">
-        <v>-32.455178630851755</v>
-      </c>
-      <c r="D110" s="0">
-        <v>-9.7465765117831342</v>
+        <v>-9.8219078993673943</v>
       </c>
     </row>
     <row r="111">
@@ -1627,13 +1293,10 @@
         <v>2635000000</v>
       </c>
       <c r="B111" s="0">
-        <v>5.207545974603299</v>
+        <v>5.2348326372048248</v>
       </c>
       <c r="C111" s="0">
-        <v>-34.227606006504352</v>
-      </c>
-      <c r="D111" s="0">
-        <v>-9.5631965016882035</v>
+        <v>-9.4037939876365257</v>
       </c>
     </row>
     <row r="112">
@@ -1641,13 +1304,10 @@
         <v>2650000000</v>
       </c>
       <c r="B112" s="0">
-        <v>4.281456506037955</v>
+        <v>4.3189535010424507</v>
       </c>
       <c r="C112" s="0">
-        <v>-36.12909003139989</v>
-      </c>
-      <c r="D112" s="0">
-        <v>-8.4221789851178741</v>
+        <v>-8.471287928235645</v>
       </c>
     </row>
     <row r="113">
@@ -1655,13 +1315,10 @@
         <v>2665000000</v>
       </c>
       <c r="B113" s="0">
-        <v>3.2477634416468746</v>
+        <v>3.1672845482029537</v>
       </c>
       <c r="C113" s="0">
-        <v>-38.245502948697712</v>
-      </c>
-      <c r="D113" s="0">
-        <v>-7.2473132302505094</v>
+        <v>-7.1993836690405209</v>
       </c>
     </row>
     <row r="114">
@@ -1669,13 +1326,10 @@
         <v>2680000000</v>
       </c>
       <c r="B114" s="0">
-        <v>2.1948805445557191</v>
+        <v>2.1186760700697214</v>
       </c>
       <c r="C114" s="0">
-        <v>-40.400020356203981</v>
-      </c>
-      <c r="D114" s="0">
-        <v>-7.1557557912461736</v>
+        <v>-7.0702573812385161</v>
       </c>
     </row>
     <row r="115">
@@ -1683,13 +1337,10 @@
         <v>2695000000</v>
       </c>
       <c r="B115" s="0">
-        <v>1.0911700199322532</v>
+        <v>1.1256527382703609</v>
       </c>
       <c r="C115" s="0">
-        <v>-42.655920915330285</v>
-      </c>
-      <c r="D115" s="0">
-        <v>-6.9134621821821991</v>
+        <v>-7.0346411849698276</v>
       </c>
     </row>
     <row r="116">
@@ -1697,13 +1348,10 @@
         <v>2710000000</v>
       </c>
       <c r="B116" s="0">
-        <v>-0.10704357255967523</v>
+        <v>-0.06887450920786975</v>
       </c>
       <c r="C116" s="0">
-        <v>-45.100558527347104</v>
-      </c>
-      <c r="D116" s="0">
-        <v>-6.7023479342056831</v>
+        <v>-6.5456817488501331</v>
       </c>
     </row>
     <row r="117">
@@ -1711,13 +1359,10 @@
         <v>2725000000</v>
       </c>
       <c r="B117" s="0">
-        <v>-1.2388000219310307</v>
+        <v>-1.313648098712271</v>
       </c>
       <c r="C117" s="0">
-        <v>-47.412015740854926</v>
-      </c>
-      <c r="D117" s="0">
-        <v>-7.140823663092041</v>
+        <v>-7.036753750654194</v>
       </c>
     </row>
     <row r="118">
@@ -1725,13 +1370,10 @@
         <v>2740000000</v>
       </c>
       <c r="B118" s="0">
-        <v>-2.0573051867047703</v>
+        <v>-1.6967428391560411</v>
       </c>
       <c r="C118" s="0">
-        <v>-49.096707194556942</v>
-      </c>
-      <c r="D118" s="0">
-        <v>-7.9688190101773166</v>
+        <v>-8.1553005518193995</v>
       </c>
     </row>
     <row r="119">
@@ -1739,13 +1381,10 @@
         <v>2755000000</v>
       </c>
       <c r="B119" s="0">
-        <v>-2.5949707664572443</v>
+        <v>-2.8759238658219815</v>
       </c>
       <c r="C119" s="0">
-        <v>-50.219459161410214</v>
-      </c>
-      <c r="D119" s="0">
-        <v>-8.7056710428662392</v>
+        <v>-8.4626924446516565</v>
       </c>
     </row>
     <row r="120">
@@ -1753,13 +1392,10 @@
         <v>2770000000</v>
       </c>
       <c r="B120" s="0">
-        <v>-2.6108369302335603</v>
+        <v>-2.2025792407474647</v>
       </c>
       <c r="C120" s="0">
-        <v>-50.298354806495738</v>
-      </c>
-      <c r="D120" s="0">
-        <v>-9.0792562818827722</v>
+        <v>-8.9521397505174818</v>
       </c>
     </row>
     <row r="121">
@@ -1767,13 +1403,10 @@
         <v>2785000000</v>
       </c>
       <c r="B121" s="0">
-        <v>-2.5529620092222984</v>
+        <v>-2.4427986678480522</v>
       </c>
       <c r="C121" s="0">
-        <v>-50.229513573379201</v>
-      </c>
-      <c r="D121" s="0">
-        <v>-9.1794547312262544</v>
+        <v>-9.4542108738854793</v>
       </c>
     </row>
     <row r="122">
@@ -1781,13 +1414,10 @@
         <v>2800000000</v>
       </c>
       <c r="B122" s="0">
-        <v>-2.3382044168332712</v>
+        <v>-2.3801508200652677</v>
       </c>
       <c r="C122" s="0">
-        <v>-49.84665502525057</v>
-      </c>
-      <c r="D122" s="0">
-        <v>-8.847345822475468</v>
+        <v>-8.6987930312586847</v>
       </c>
     </row>
     <row r="123">
@@ -1795,13 +1425,10 @@
         <v>2815000000</v>
       </c>
       <c r="B123" s="0">
-        <v>-2.5758962136762946</v>
+        <v>-2.4356387221833593</v>
       </c>
       <c r="C123" s="0">
-        <v>-50.368445975839535</v>
-      </c>
-      <c r="D123" s="0">
-        <v>-7.6079659427414414</v>
+        <v>-7.4847905027270345</v>
       </c>
     </row>
     <row r="124">
@@ -1809,13 +1436,10 @@
         <v>2830000000</v>
       </c>
       <c r="B124" s="0">
-        <v>-2.1916877430929773</v>
+        <v>-1.6718316151678074</v>
       </c>
       <c r="C124" s="0">
-        <v>-49.646189761411399</v>
-      </c>
-      <c r="D124" s="0">
-        <v>-6.992699397226648</v>
+        <v>-7.2129939770349152</v>
       </c>
     </row>
     <row r="125">
@@ -1823,13 +1447,10 @@
         <v>2845000000</v>
       </c>
       <c r="B125" s="0">
-        <v>-1.5987602665683198</v>
+        <v>-1.7359121412556497</v>
       </c>
       <c r="C125" s="0">
-        <v>-48.506251512498082</v>
-      </c>
-      <c r="D125" s="0">
-        <v>-7.0370057423177279</v>
+        <v>-6.9246942542209498</v>
       </c>
     </row>
     <row r="126">
@@ -1837,13 +1458,10 @@
         <v>2860000000</v>
       </c>
       <c r="B126" s="0">
-        <v>-0.4928021190606664</v>
+        <v>-0.39762324542302352</v>
       </c>
       <c r="C126" s="0">
-        <v>-46.340010465441836</v>
-      </c>
-      <c r="D126" s="0">
-        <v>-7.0189198481074078</v>
+        <v>-6.9226725322389342</v>
       </c>
     </row>
     <row r="127">
@@ -1851,13 +1469,10 @@
         <v>2875000000</v>
       </c>
       <c r="B127" s="0">
-        <v>0.48492277864805189</v>
+        <v>0.56687720881945225</v>
       </c>
       <c r="C127" s="0">
-        <v>-44.429996987956521</v>
-      </c>
-      <c r="D127" s="0">
-        <v>-7.1542832630507824</v>
+        <v>-7.3731839921240621</v>
       </c>
     </row>
     <row r="128">
@@ -1865,13 +1480,10 @@
         <v>2890000000</v>
       </c>
       <c r="B128" s="0">
-        <v>1.5497432704282801</v>
+        <v>1.5676158234643012</v>
       </c>
       <c r="C128" s="0">
-        <v>-42.345555879014036</v>
-      </c>
-      <c r="D128" s="0">
-        <v>-7.9839048529851722</v>
+        <v>-7.7430341614057498</v>
       </c>
     </row>
     <row r="129">
@@ -1879,13 +1491,10 @@
         <v>2905000000</v>
       </c>
       <c r="B129" s="0">
-        <v>2.1631822293836294</v>
+        <v>2.2689546073216498</v>
       </c>
       <c r="C129" s="0">
-        <v>-41.163643840499375</v>
-      </c>
-      <c r="D129" s="0">
-        <v>-9.4457235223030835</v>
+        <v>-9.3405086861825168</v>
       </c>
     </row>
     <row r="130">
@@ -1893,13 +1502,10 @@
         <v>2920000000</v>
       </c>
       <c r="B130" s="0">
-        <v>2.6925054261131862</v>
+        <v>2.6709533687781395</v>
       </c>
       <c r="C130" s="0">
-        <v>-40.149731741481638</v>
-      </c>
-      <c r="D130" s="0">
-        <v>-9.3416310264229345</v>
+        <v>-9.69366588026854</v>
       </c>
     </row>
     <row r="131">
@@ -1907,13 +1513,10 @@
         <v>2935000000</v>
       </c>
       <c r="B131" s="0">
-        <v>2.7304881030690105</v>
+        <v>2.6723643811385074</v>
       </c>
       <c r="C131" s="0">
-        <v>-40.118271470274287</v>
-      </c>
-      <c r="D131" s="0">
-        <v>-8.0552338246613555</v>
+        <v>-7.8859615052706422</v>
       </c>
     </row>
     <row r="132">
@@ -1921,13 +1524,10 @@
         <v>2950000000</v>
       </c>
       <c r="B132" s="0">
-        <v>2.7228768298069781</v>
+        <v>2.7386623704713031</v>
       </c>
       <c r="C132" s="0">
-        <v>-40.177772224688944</v>
-      </c>
-      <c r="D132" s="0">
-        <v>-7.5092540081439392</v>
+        <v>-7.2926865299411947</v>
       </c>
     </row>
     <row r="133">
@@ -1935,13 +1535,10 @@
         <v>2965000000</v>
       </c>
       <c r="B133" s="0">
-        <v>2.8106164256614932</v>
+        <v>2.7693866046741888</v>
       </c>
       <c r="C133" s="0">
-        <v>-40.046346667422284</v>
-      </c>
-      <c r="D133" s="0">
-        <v>-7.1070187896997368</v>
+        <v>-7.4268692565244301</v>
       </c>
     </row>
     <row r="134">
@@ -1949,13 +1546,10 @@
         <v>2980000000</v>
       </c>
       <c r="B134" s="0">
-        <v>3.0730240414340706</v>
+        <v>3.1172901130670674</v>
       </c>
       <c r="C134" s="0">
-        <v>-39.565362763396607</v>
-      </c>
-      <c r="D134" s="0">
-        <v>-6.2833251080624226</v>
+        <v>-6.113092262781608</v>
       </c>
     </row>
     <row r="135">
@@ -1963,13 +1557,10 @@
         <v>2995000000</v>
       </c>
       <c r="B135" s="0">
-        <v>3.4647526618581637</v>
+        <v>3.4462199035535548</v>
       </c>
       <c r="C135" s="0">
-        <v>-38.82551677552992</v>
-      </c>
-      <c r="D135" s="0">
-        <v>-6.839479757248518</v>
+        <v>-6.6625472619057007</v>
       </c>
     </row>
     <row r="136">
@@ -1977,13 +1568,10 @@
         <v>3010000000</v>
       </c>
       <c r="B136" s="0">
-        <v>4.204615941695991</v>
+        <v>4.1497833642205038</v>
       </c>
       <c r="C136" s="0">
-        <v>-37.38918359322453</v>
-      </c>
-      <c r="D136" s="0">
-        <v>-8.2600837026585801</v>
+        <v>-8.5552687760789166</v>
       </c>
     </row>
     <row r="137">
@@ -1991,13 +1579,10 @@
         <v>3025000000</v>
       </c>
       <c r="B137" s="0">
-        <v>4.1234082130484246</v>
+        <v>4.0928566922037781</v>
       </c>
       <c r="C137" s="0">
-        <v>-37.594776718412547</v>
-      </c>
-      <c r="D137" s="0">
-        <v>-9.9815329814227312</v>
+        <v>-9.8186859449846438</v>
       </c>
     </row>
     <row r="138">
@@ -2005,13 +1590,10 @@
         <v>3040000000</v>
       </c>
       <c r="B138" s="0">
-        <v>3.0612967809275275</v>
+        <v>3.0171088612426615</v>
       </c>
       <c r="C138" s="0">
-        <v>-39.761963675059661</v>
-      </c>
-      <c r="D138" s="0">
-        <v>-9.6462754966126969</v>
+        <v>-9.4103022867846562</v>
       </c>
     </row>
     <row r="139">
@@ -2019,13 +1601,10 @@
         <v>3055000000</v>
       </c>
       <c r="B139" s="0">
-        <v>1.6840300137071296</v>
+        <v>1.755393005188445</v>
       </c>
       <c r="C139" s="0">
-        <v>-42.559249828896846</v>
-      </c>
-      <c r="D139" s="0">
-        <v>-8.5174835761518111</v>
+        <v>-8.6365475933140488</v>
       </c>
     </row>
     <row r="140">
@@ -2033,13 +1612,10 @@
         <v>3070000000</v>
       </c>
       <c r="B140" s="0">
-        <v>0.44931180649258451</v>
+        <v>0.50087336381299608</v>
       </c>
       <c r="C140" s="0">
-        <v>-45.071229461298202</v>
-      </c>
-      <c r="D140" s="0">
-        <v>-7.4088999069932369</v>
+        <v>-7.4268882534759664</v>
       </c>
     </row>
     <row r="141">
@@ -2047,13 +1623,10 @@
         <v>3085000000</v>
       </c>
       <c r="B141" s="0">
-        <v>-0.22060023052054589</v>
+        <v>0.0035211808753778939</v>
       </c>
       <c r="C141" s="0">
-        <v>-46.453389393165935</v>
-      </c>
-      <c r="D141" s="0">
-        <v>-6.5035984189664617</v>
+        <v>-6.4834400469100562</v>
       </c>
     </row>
     <row r="142">
@@ -2061,13 +1634,10 @@
         <v>3100000000</v>
       </c>
       <c r="B142" s="0">
-        <v>0.39609073749311463</v>
+        <v>0.049275073042277739</v>
       </c>
       <c r="C142" s="0">
-        <v>-45.262137966438864</v>
-      </c>
-      <c r="D142" s="0">
-        <v>-7.0391801000042475</v>
+        <v>-7.0712780538209632</v>
       </c>
     </row>
     <row r="143">
@@ -2075,13 +1645,10 @@
         <v>3115000000</v>
       </c>
       <c r="B143" s="0">
-        <v>0.66946921420944605</v>
+        <v>0.54493990917727331</v>
       </c>
       <c r="C143" s="0">
-        <v>-44.757308156224518</v>
-      </c>
-      <c r="D143" s="0">
-        <v>-9.9369889777633418</v>
+        <v>-9.9721367555229978</v>
       </c>
     </row>
     <row r="144">
@@ -2089,13 +1656,10 @@
         <v>3130000000</v>
       </c>
       <c r="B144" s="0">
-        <v>-0.17996036914560776</v>
+        <v>0.31015804927016788</v>
       </c>
       <c r="C144" s="0">
-        <v>-46.497893053959835</v>
-      </c>
-      <c r="D144" s="0">
-        <v>-12.456388009517216</v>
+        <v>-12.639470989151091</v>
       </c>
     </row>
     <row r="145">
@@ -2103,13 +1667,10 @@
         <v>3145000000</v>
       </c>
       <c r="B145" s="0">
-        <v>-0.29674953079398136</v>
+        <v>-0.39930352441988148</v>
       </c>
       <c r="C145" s="0">
-        <v>-46.772997621953358</v>
-      </c>
-      <c r="D145" s="0">
-        <v>-9.6410162187660617</v>
+        <v>-9.6443184597344001</v>
       </c>
     </row>
     <row r="146">
@@ -2117,13 +1678,10 @@
         <v>3160000000</v>
       </c>
       <c r="B146" s="0">
-        <v>-1.0255074377735873</v>
+        <v>-1.0943328002233379</v>
       </c>
       <c r="C146" s="0">
-        <v>-48.271842092654893</v>
-      </c>
-      <c r="D146" s="0">
-        <v>-8.1243567832819785</v>
+        <v>-8.0181862929010208</v>
       </c>
     </row>
     <row r="147">
@@ -2131,13 +1689,10 @@
         <v>3175000000</v>
       </c>
       <c r="B147" s="0">
-        <v>-1.2612469695069706</v>
+        <v>-1.0010484801303861</v>
       </c>
       <c r="C147" s="0">
-        <v>-48.784454096313475</v>
-      </c>
-      <c r="D147" s="0">
-        <v>-7.068862615694286</v>
+        <v>-7.1448422695596747</v>
       </c>
     </row>
     <row r="148">
@@ -2145,13 +1700,10 @@
         <v>3190000000</v>
       </c>
       <c r="B148" s="0">
-        <v>-0.24836779662284414</v>
+        <v>-0.50993691796814389</v>
       </c>
       <c r="C148" s="0">
-        <v>-46.799634819128954</v>
-      </c>
-      <c r="D148" s="0">
-        <v>-7.6324328731751727</v>
+        <v>-7.5388323000270052</v>
       </c>
     </row>
     <row r="149">
@@ -2159,13 +1711,10 @@
         <v>3205000000</v>
       </c>
       <c r="B149" s="0">
-        <v>0.70638146783688782</v>
+        <v>0.84876858113626241</v>
       </c>
       <c r="C149" s="0">
-        <v>-44.930883306162592</v>
-      </c>
-      <c r="D149" s="0">
-        <v>-10.501292043196273</v>
+        <v>-10.401877796573181</v>
       </c>
     </row>
     <row r="150">
@@ -2173,13 +1722,10 @@
         <v>3220000000</v>
       </c>
       <c r="B150" s="0">
-        <v>1.4316710727364921</v>
+        <v>1.4177261928527152</v>
       </c>
       <c r="C150" s="0">
-        <v>-43.520860853183279</v>
-      </c>
-      <c r="D150" s="0">
-        <v>-15.241024825281315</v>
+        <v>-15.374673647834921</v>
       </c>
     </row>
     <row r="151">
@@ -2187,13 +1733,10 @@
         <v>3235000000</v>
       </c>
       <c r="B151" s="0">
-        <v>1.2176142210572358</v>
+        <v>0.9471807823337457</v>
       </c>
       <c r="C151" s="0">
-        <v>-43.989342822719557</v>
-      </c>
-      <c r="D151" s="0">
-        <v>-11.600469395620266</v>
+        <v>-11.54237325221734</v>
       </c>
     </row>
     <row r="152">
@@ -2201,13 +1744,10 @@
         <v>3250000000</v>
       </c>
       <c r="B152" s="0">
-        <v>0.17524809223083082</v>
+        <v>0.076510307871007655</v>
       </c>
       <c r="C152" s="0">
-        <v>-46.114256599855466</v>
-      </c>
-      <c r="D152" s="0">
-        <v>-9.0903776585895724</v>
+        <v>-9.0914055827970248</v>
       </c>
     </row>
     <row r="153">
@@ -2215,13 +1755,10 @@
         <v>3265000000</v>
       </c>
       <c r="B153" s="0">
-        <v>-0.7546829590656543</v>
+        <v>-0.23745115058484245</v>
       </c>
       <c r="C153" s="0">
-        <v>-48.014115195092813</v>
-      </c>
-      <c r="D153" s="0">
-        <v>-8.0077662591230716</v>
+        <v>-8.0468540884194013</v>
       </c>
     </row>
     <row r="154">
@@ -2229,13 +1766,10 @@
         <v>3280000000</v>
       </c>
       <c r="B154" s="0">
-        <v>-0.2621735136827148</v>
+        <v>0.19310082841275999</v>
       </c>
       <c r="C154" s="0">
-        <v>-47.068909466338653</v>
-      </c>
-      <c r="D154" s="0">
-        <v>-8.7653773941370758</v>
+        <v>-8.5915603969629846</v>
       </c>
     </row>
     <row r="155">
@@ -2243,13 +1777,10 @@
         <v>3295000000</v>
       </c>
       <c r="B155" s="0">
-        <v>0.28973188399573502</v>
+        <v>0.20794730793434368</v>
       </c>
       <c r="C155" s="0">
-        <v>-46.004730175348747</v>
-      </c>
-      <c r="D155" s="0">
-        <v>-13.220998885404917</v>
+        <v>-13.337001490725537</v>
       </c>
     </row>
     <row r="156">
@@ -2257,13 +1788,10 @@
         <v>3310000000</v>
       </c>
       <c r="B156" s="0">
-        <v>0.60652235267718169</v>
+        <v>0.68564966339675593</v>
       </c>
       <c r="C156" s="0">
-        <v>-45.410600734899653</v>
-      </c>
-      <c r="D156" s="0">
-        <v>-15.448186036973517</v>
+        <v>-15.904956007120237</v>
       </c>
     </row>
     <row r="157">
@@ -2271,13 +1799,10 @@
         <v>3325000000</v>
       </c>
       <c r="B157" s="0">
-        <v>-0.22238350064461088</v>
+        <v>0.040053634371812308</v>
       </c>
       <c r="C157" s="0">
-        <v>-47.10768555881134</v>
-      </c>
-      <c r="D157" s="0">
-        <v>-9.783012135667434</v>
+        <v>-9.6037727830464963</v>
       </c>
     </row>
     <row r="158">
@@ -2285,13 +1810,10 @@
         <v>3340000000</v>
       </c>
       <c r="B158" s="0">
-        <v>-0.57335164644768355</v>
+        <v>-0.65963233506101204</v>
       </c>
       <c r="C158" s="0">
-        <v>-47.848718193866297</v>
-      </c>
-      <c r="D158" s="0">
-        <v>-8.3465778945980826</v>
+        <v>-8.2420396268613239</v>
       </c>
     </row>
     <row r="159">
@@ -2299,13 +1821,10 @@
         <v>3355000000</v>
       </c>
       <c r="B159" s="0">
-        <v>-0.92054415389600663</v>
+        <v>-0.96990058135595802</v>
       </c>
       <c r="C159" s="0">
-        <v>-48.58202436263187</v>
-      </c>
-      <c r="D159" s="0">
-        <v>-9.0060129808626037</v>
+        <v>-9.212195976762878</v>
       </c>
     </row>
     <row r="160">
@@ -2313,13 +1832,10 @@
         <v>3370000000</v>
       </c>
       <c r="B160" s="0">
-        <v>-0.92720982745328229</v>
+        <v>-1.0553170011748989</v>
       </c>
       <c r="C160" s="0">
-        <v>-48.634103237072978</v>
-      </c>
-      <c r="D160" s="0">
-        <v>-9.2848157602572581</v>
+        <v>-8.9614535757161633</v>
       </c>
     </row>
     <row r="161">
@@ -2327,13 +1843,10 @@
         <v>3385000000</v>
       </c>
       <c r="B161" s="0">
-        <v>-0.40866998050592684</v>
+        <v>-0.49319114985857837</v>
       </c>
       <c r="C161" s="0">
-        <v>-47.635598986174763</v>
-      </c>
-      <c r="D161" s="0">
-        <v>-11.250373381805863</v>
+        <v>-11.020560538842993</v>
       </c>
     </row>
     <row r="162">
@@ -2341,13 +1854,10 @@
         <v>3400000000</v>
       </c>
       <c r="B162" s="0">
-        <v>-0.99820558414803173</v>
+        <v>-0.93891456468825041</v>
       </c>
       <c r="C162" s="0">
-        <v>-48.853075073880809</v>
-      </c>
-      <c r="D162" s="0">
-        <v>-12.119529968168841</v>
+        <v>-12.649038184110182</v>
       </c>
     </row>
     <row r="163">
@@ -2355,13 +1865,10 @@
         <v>3415000000</v>
       </c>
       <c r="B163" s="0">
-        <v>-1.6986958672062116</v>
+        <v>-2.545129156647608</v>
       </c>
       <c r="C163" s="0">
-        <v>-50.29229145950309</v>
-      </c>
-      <c r="D163" s="0">
-        <v>-8.9700141844170176</v>
+        <v>-8.9051532143385437</v>
       </c>
     </row>
     <row r="164">
@@ -2369,13 +1876,10 @@
         <v>3430000000</v>
       </c>
       <c r="B164" s="0">
-        <v>-2.8781838406657556</v>
+        <v>-3.2268866452439191</v>
       </c>
       <c r="C164" s="0">
-        <v>-52.689335646926565</v>
-      </c>
-      <c r="D164" s="0">
-        <v>-7.3323799715518412</v>
+        <v>-7.0754711453530215</v>
       </c>
     </row>
     <row r="165">
@@ -2383,13 +1887,10 @@
         <v>3445000000</v>
       </c>
       <c r="B165" s="0">
-        <v>-4.0209811693589863</v>
+        <v>-3.2626020028811702</v>
       </c>
       <c r="C165" s="0">
-        <v>-55.012832428330512</v>
-      </c>
-      <c r="D165" s="0">
-        <v>-7.876466066218609</v>
+        <v>-8.0337704273067008</v>
       </c>
     </row>
     <row r="166">
@@ -2397,13 +1898,10 @@
         <v>3460000000</v>
       </c>
       <c r="B166" s="0">
-        <v>-3.5698360835755452</v>
+        <v>-3.6493479051669091</v>
       </c>
       <c r="C166" s="0">
-        <v>-54.148279707746269</v>
-      </c>
-      <c r="D166" s="0">
-        <v>-8.1934952090552589</v>
+        <v>-8.0447601365697956</v>
       </c>
     </row>
     <row r="167">
@@ -2411,13 +1909,10 @@
         <v>3475000000</v>
       </c>
       <c r="B167" s="0">
-        <v>-5.639468302980184</v>
+        <v>-4.6044446115181543</v>
       </c>
       <c r="C167" s="0">
-        <v>-58.325118349222663</v>
-      </c>
-      <c r="D167" s="0">
-        <v>-7.6432144617045692</v>
+        <v>-7.5250005200755243</v>
       </c>
     </row>
     <row r="168">
@@ -2425,13 +1920,10 @@
         <v>3490000000</v>
       </c>
       <c r="B168" s="0">
-        <v>-5.5827967973870898</v>
+        <v>-4.9204160092815883</v>
       </c>
       <c r="C168" s="0">
-        <v>-58.249187698697426</v>
-      </c>
-      <c r="D168" s="0">
-        <v>-7.7513891107191863</v>
+        <v>-7.8432829780834501</v>
       </c>
     </row>
     <row r="169">
@@ -2439,13 +1931,10 @@
         <v>3505000000</v>
       </c>
       <c r="B169" s="0">
-        <v>-12.422722985157694</v>
+        <v>-8.3630647392889657</v>
       </c>
       <c r="C169" s="0">
-        <v>-71.966291981108583</v>
-      </c>
-      <c r="D169" s="0">
-        <v>-8.9023933736822709</v>
+        <v>-8.914014846057988</v>
       </c>
     </row>
     <row r="170">
@@ -2453,13 +1942,10 @@
         <v>3520000000</v>
       </c>
       <c r="B170" s="0">
-        <v>-8.5194870285647859</v>
+        <v>-8.3971069438227097</v>
       </c>
       <c r="C170" s="0">
-        <v>-64.196912891431836</v>
-      </c>
-      <c r="D170" s="0">
-        <v>-9.0583875788332353</v>
+        <v>-9.0174862014006472</v>
       </c>
     </row>
     <row r="171">
@@ -2467,13 +1953,10 @@
         <v>3535000000</v>
       </c>
       <c r="B171" s="0">
-        <v>-5.0063625594134464</v>
+        <v>-6.4476354084746923</v>
       </c>
       <c r="C171" s="0">
-        <v>-57.2075990462249</v>
-      </c>
-      <c r="D171" s="0">
-        <v>-9.9406846785398599</v>
+        <v>-9.9586035269443016</v>
       </c>
     </row>
     <row r="172">
@@ -2481,13 +1964,10 @@
         <v>3550000000</v>
       </c>
       <c r="B172" s="0">
-        <v>-7.9181153409829399</v>
+        <v>-7.0129127753133353</v>
       </c>
       <c r="C172" s="0">
-        <v>-63.067883307807406</v>
-      </c>
-      <c r="D172" s="0">
-        <v>-12.685080633164045</v>
+        <v>-12.711262424044138</v>
       </c>
     </row>
     <row r="173">
@@ -2495,13 +1975,10 @@
         <v>3565000000</v>
       </c>
       <c r="B173" s="0">
-        <v>-6.8537244288635861</v>
+        <v>-4.9713748139641822</v>
       </c>
       <c r="C173" s="0">
-        <v>-60.975725106224502</v>
-      </c>
-      <c r="D173" s="0">
-        <v>-13.046416319119471</v>
+        <v>-12.946526976015239</v>
       </c>
     </row>
     <row r="174">
@@ -2509,13 +1986,10 @@
         <v>3580000000</v>
       </c>
       <c r="B174" s="0">
-        <v>-8.1267462627986369</v>
+        <v>-9.1361597771994916</v>
       </c>
       <c r="C174" s="0">
-        <v>-63.558238623214407</v>
-      </c>
-      <c r="D174" s="0">
-        <v>-13.658536808219065</v>
+        <v>-13.795302071880295</v>
       </c>
     </row>
     <row r="175">
@@ -2523,13 +1997,10 @@
         <v>3595000000</v>
       </c>
       <c r="B175" s="0">
-        <v>-9.1026968757003601</v>
+        <v>-10.30343169756852</v>
       </c>
       <c r="C175" s="0">
-        <v>-65.546457210518398</v>
-      </c>
-      <c r="D175" s="0">
-        <v>-14.6614372402189</v>
+        <v>-14.501635111241239</v>
       </c>
     </row>
     <row r="176">
@@ -2537,13 +2008,10 @@
         <v>3610000000</v>
       </c>
       <c r="B176" s="0">
-        <v>-9.1107004019821076</v>
+        <v>-6.585622767121194</v>
       </c>
       <c r="C176" s="0">
-        <v>-65.598630406817023</v>
-      </c>
-      <c r="D176" s="0">
-        <v>-14.794154567161698</v>
+        <v>-14.686423701145007</v>
       </c>
     </row>
     <row r="177">
@@ -2551,13 +2019,10 @@
         <v>3625000000</v>
       </c>
       <c r="B177" s="0">
-        <v>-5.7901780810609154</v>
+        <v>-7.1023089263102079</v>
       </c>
       <c r="C177" s="0">
-        <v>-58.993601945001728</v>
-      </c>
-      <c r="D177" s="0">
-        <v>-14.660524648498042</v>
+        <v>-15.058695101024803</v>
       </c>
     </row>
     <row r="178">
@@ -2565,13 +2030,10 @@
         <v>3640000000</v>
       </c>
       <c r="B178" s="0">
-        <v>-4.5404095226097851</v>
+        <v>-5.191628238645869</v>
       </c>
       <c r="C178" s="0">
-        <v>-56.529932282940329</v>
-      </c>
-      <c r="D178" s="0">
-        <v>-15.248660749124266</v>
+        <v>-14.600530925324806</v>
       </c>
     </row>
     <row r="179">
@@ -2579,13 +2041,10 @@
         <v>3655000000</v>
       </c>
       <c r="B179" s="0">
-        <v>-4.8178032635570567</v>
+        <v>-4.4973008511207802</v>
       </c>
       <c r="C179" s="0">
-        <v>-57.120439717731344</v>
-      </c>
-      <c r="D179" s="0">
-        <v>-16.442662509904732</v>
+        <v>-16.266582539259666</v>
       </c>
     </row>
     <row r="180">
@@ -2593,13 +2052,10 @@
         <v>3670000000</v>
       </c>
       <c r="B180" s="0">
-        <v>-3.9713072114348833</v>
+        <v>-4.0125214867489483</v>
       </c>
       <c r="C180" s="0">
-        <v>-55.46302127265119</v>
-      </c>
-      <c r="D180" s="0">
-        <v>-16.270708590727008</v>
+        <v>-17.117543205698208</v>
       </c>
     </row>
     <row r="181">
@@ -2607,13 +2063,10 @@
         <v>3685000000</v>
       </c>
       <c r="B181" s="0">
-        <v>-4.6192029595924389</v>
+        <v>-4.0538005162289394</v>
       </c>
       <c r="C181" s="0">
-        <v>-56.794241327825929</v>
-      </c>
-      <c r="D181" s="0">
-        <v>-15.487823024856528</v>
+        <v>-14.501693408104543</v>
       </c>
     </row>
     <row r="182">
@@ -2621,13 +2074,10 @@
         <v>3700000000</v>
       </c>
       <c r="B182" s="0">
-        <v>-3.5721565403800781</v>
+        <v>-3.8802043942349869</v>
       </c>
       <c r="C182" s="0">
-        <v>-54.735433126839695</v>
-      </c>
-      <c r="D182" s="0">
-        <v>-16.58804591255171</v>
+        <v>-16.553499433985557</v>
       </c>
     </row>
     <row r="183">
@@ -2635,13 +2085,10 @@
         <v>3715000000</v>
       </c>
       <c r="B183" s="0">
-        <v>-3.0993954313917982</v>
+        <v>-2.6544725539122176</v>
       </c>
       <c r="C183" s="0">
-        <v>-53.825052789455121</v>
-      </c>
-      <c r="D183" s="0">
-        <v>-15.847002429592054</v>
+        <v>-16.694174066379965</v>
       </c>
     </row>
     <row r="184">
@@ -2649,13 +2096,10 @@
         <v>3730000000</v>
       </c>
       <c r="B184" s="0">
-        <v>-3.3438754892627998</v>
+        <v>-3.0912023552150174</v>
       </c>
       <c r="C184" s="0">
-        <v>-54.349013179438998</v>
-      </c>
-      <c r="D184" s="0">
-        <v>-14.774416691690785</v>
+        <v>-14.020040673760557</v>
       </c>
     </row>
     <row r="185">
@@ -2663,13 +2107,10 @@
         <v>3745000000</v>
       </c>
       <c r="B185" s="0">
-        <v>-3.677620064384449</v>
+        <v>-3.0925238531558286</v>
       </c>
       <c r="C185" s="0">
-        <v>-55.051362134218245</v>
-      </c>
-      <c r="D185" s="0">
-        <v>-14.81554668821769</v>
+        <v>-14.845328562139342</v>
       </c>
     </row>
     <row r="186">
@@ -2677,13 +2118,10 @@
         <v>3760000000</v>
       </c>
       <c r="B186" s="0">
-        <v>-3.4211201490189822</v>
+        <v>-2.9148112889721745</v>
       </c>
       <c r="C186" s="0">
-        <v>-54.573082761330831</v>
-      </c>
-      <c r="D186" s="0">
-        <v>-14.602286715922341</v>
+        <v>-15.173367233333925</v>
       </c>
     </row>
     <row r="187">
@@ -2691,13 +2129,10 @@
         <v>3775000000</v>
       </c>
       <c r="B187" s="0">
-        <v>-2.8211227224395223</v>
+        <v>-5.0422368555618142</v>
       </c>
       <c r="C187" s="0">
-        <v>-53.407670128922831</v>
-      </c>
-      <c r="D187" s="0">
-        <v>-14.776787688774746</v>
+        <v>-14.602715017537658</v>
       </c>
     </row>
     <row r="188">
@@ -2705,13 +2140,10 @@
         <v>3790000000</v>
       </c>
       <c r="B188" s="0">
-        <v>-4.480142037073179</v>
+        <v>-4.6515663726709988</v>
       </c>
       <c r="C188" s="0">
-        <v>-56.760153838247447</v>
-      </c>
-      <c r="D188" s="0">
-        <v>-14.285422141773584</v>
+        <v>-14.082963687518333</v>
       </c>
     </row>
     <row r="189">
@@ -2719,13 +2151,10 @@
         <v>3805000000</v>
       </c>
       <c r="B189" s="0">
-        <v>-3.0895247941495469</v>
+        <v>-3.7351442859655748</v>
       </c>
       <c r="C189" s="0">
-        <v>-54.01322837517057</v>
-      </c>
-      <c r="D189" s="0">
-        <v>-14.574168646865406</v>
+        <v>-14.544483247557086</v>
       </c>
     </row>
     <row r="190">
@@ -2733,13 +2162,10 @@
         <v>3820000000</v>
       </c>
       <c r="B190" s="0">
-        <v>-6.3299124495556143</v>
+        <v>-5.8656881855115444</v>
       </c>
       <c r="C190" s="0">
-        <v>-60.528177722085047</v>
-      </c>
-      <c r="D190" s="0">
-        <v>-14.751224781196829</v>
+        <v>-14.884529096475987</v>
       </c>
     </row>
     <row r="191">
@@ -2747,13 +2173,10 @@
         <v>3835000000</v>
       </c>
       <c r="B191" s="0">
-        <v>-5.7681823196539597</v>
+        <v>-5.9233270168711023</v>
       </c>
       <c r="C191" s="0">
-        <v>-59.438757569747558</v>
-      </c>
-      <c r="D191" s="0">
-        <v>-14.314462739827638</v>
+        <v>-14.183345009872127</v>
       </c>
     </row>
     <row r="192">
@@ -2761,13 +2184,10 @@
         <v>3850000000</v>
       </c>
       <c r="B192" s="0">
-        <v>-6.396050880989641</v>
+        <v>-5.9391225497391389</v>
       </c>
       <c r="C192" s="0">
-        <v>-60.728401916888934</v>
-      </c>
-      <c r="D192" s="0">
-        <v>-14.045996322738661</v>
+        <v>-13.804047489692417</v>
       </c>
     </row>
     <row r="193">
@@ -2775,13 +2195,10 @@
         <v>3865000000</v>
       </c>
       <c r="B193" s="0">
-        <v>-7.2500952176233966</v>
+        <v>-6.0109213023840304</v>
       </c>
       <c r="C193" s="0">
-        <v>-62.470265965073317</v>
-      </c>
-      <c r="D193" s="0">
-        <v>-13.571693963936401</v>
+        <v>-13.835943524120058</v>
       </c>
     </row>
     <row r="194">
@@ -2789,13 +2206,10 @@
         <v>3880000000</v>
       </c>
       <c r="B194" s="0">
-        <v>-6.4187879020165219</v>
+        <v>-6.6061305584576822</v>
       </c>
       <c r="C194" s="0">
-        <v>-60.84129588065683</v>
-      </c>
-      <c r="D194" s="0">
-        <v>-13.369109326123008</v>
+        <v>-13.446713148248621</v>
       </c>
     </row>
     <row r="195">
@@ -2803,13 +2217,10 @@
         <v>3895000000</v>
       </c>
       <c r="B195" s="0">
-        <v>-6.7424075961745906</v>
+        <v>-7.1478161048358615</v>
       </c>
       <c r="C195" s="0">
-        <v>-61.522049997260488</v>
-      </c>
-      <c r="D195" s="0">
-        <v>-13.891394590350718</v>
+        <v>-13.76720759864784</v>
       </c>
     </row>
     <row r="196">
@@ -2817,13 +2228,10 @@
         <v>3910000000</v>
       </c>
       <c r="B196" s="0">
-        <v>-7.1690496613376453</v>
+        <v>-6.1063562313680784</v>
       </c>
       <c r="C196" s="0">
-        <v>-62.408720035332273</v>
-      </c>
-      <c r="D196" s="0">
-        <v>-12.504949376872363</v>
+        <v>-12.379490463931495</v>
       </c>
     </row>
     <row r="197">
@@ -2831,13 +2239,10 @@
         <v>3925000000</v>
       </c>
       <c r="B197" s="0">
-        <v>-7.2309721748861158</v>
+        <v>-7.2238799894103138</v>
       </c>
       <c r="C197" s="0">
-        <v>-62.565823136137304</v>
-      </c>
-      <c r="D197" s="0">
-        <v>-13.344934067645225</v>
+        <v>-13.552586398982529</v>
       </c>
     </row>
     <row r="198">
@@ -2845,13 +2250,10 @@
         <v>3940000000</v>
       </c>
       <c r="B198" s="0">
-        <v>-7.1451867941304457</v>
+        <v>-10.695546306624863</v>
       </c>
       <c r="C198" s="0">
-        <v>-62.427383589512019</v>
-      </c>
-      <c r="D198" s="0">
-        <v>-15.217826268051976</v>
+        <v>-15.165224233098659</v>
       </c>
     </row>
     <row r="199">
@@ -2859,13 +2261,10 @@
         <v>3955000000</v>
       </c>
       <c r="B199" s="0">
-        <v>-12.683827500650789</v>
+        <v>-7.8105070749890579</v>
       </c>
       <c r="C199" s="0">
-        <v>-73.53767032271513</v>
-      </c>
-      <c r="D199" s="0">
-        <v>-13.198498132533711</v>
+        <v>-12.908442861007156</v>
       </c>
     </row>
     <row r="200">
@@ -2873,13 +2272,10 @@
         <v>3970000000</v>
       </c>
       <c r="B200" s="0">
-        <v>-9.8783601218006396</v>
+        <v>-7.744290155765551</v>
       </c>
       <c r="C200" s="0">
-        <v>-67.959615943603225</v>
-      </c>
-      <c r="D200" s="0">
-        <v>-13.4489298700726</v>
+        <v>-13.798535531182171</v>
       </c>
     </row>
     <row r="201">
@@ -2887,13 +2283,10 @@
         <v>3985000000</v>
       </c>
       <c r="B201" s="0">
-        <v>-10.438587273915591</v>
+        <v>-15.178357321338805</v>
       </c>
       <c r="C201" s="0">
-        <v>-69.112826627213451</v>
-      </c>
-      <c r="D201" s="0">
-        <v>-15.573982407762228</v>
+        <v>-15.58329295768289</v>
       </c>
     </row>
     <row r="202">
@@ -2901,13 +2294,10 @@
         <v>4000000000</v>
       </c>
       <c r="B202" s="0">
-        <v>-9.717273972745808</v>
+        <v>-13.04473494610928</v>
       </c>
       <c r="C202" s="0">
-        <v>-67.702833336790505</v>
-      </c>
-      <c r="D202" s="0">
-        <v>-13.768200132822104</v>
+        <v>-13.672625961429164</v>
       </c>
     </row>
   </sheetData>

--- a/data/Antenna/BoresightGainDataHelicalAntennas.xlsx
+++ b/data/Antenna/BoresightGainDataHelicalAntennas.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josea\Documents\GitHub\AutomatedRadioEvaluationSuite\data\Antenna\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4687913F-CCF2-44EC-B3DB-68D330DA3B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Frequency (Hz)</t>
   </si>
@@ -23,12 +30,21 @@
   <si>
     <t>Return Loss (dB)</t>
   </si>
+  <si>
+    <t>Theta (deg)</t>
+  </si>
+  <si>
+    <t>Phi (deg)</t>
+  </si>
+  <si>
+    <t>Return Loss (deg)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -42,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -50,2256 +66,4402 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="true"/>
-    <col min="2" max="2" width="14.453125" customWidth="true"/>
-    <col min="3" max="3" width="14.453125" customWidth="true"/>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>1000000000</v>
       </c>
-      <c r="B2" s="0">
+      <c r="D2">
         <v>-11.008595878716942</v>
       </c>
-      <c r="C2" s="0">
+      <c r="E2">
         <v>-1.0970920240398798</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>1015000000</v>
       </c>
-      <c r="B3" s="0">
+      <c r="D3">
         <v>-11.212376549828384</v>
       </c>
-      <c r="C3" s="0">
+      <c r="E3">
         <v>-0.92781794077833435</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>1030000000</v>
       </c>
-      <c r="B4" s="0">
+      <c r="D4">
         <v>-13.624513360781382</v>
       </c>
-      <c r="C4" s="0">
+      <c r="E4">
         <v>-1.4033348642067847</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>1045000000</v>
       </c>
-      <c r="B5" s="0">
+      <c r="D5">
         <v>-12.282942531738357</v>
       </c>
-      <c r="C5" s="0">
+      <c r="E5">
         <v>-3.0006418771069612</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>1060000000</v>
       </c>
-      <c r="B6" s="0">
+      <c r="D6">
         <v>-10.380894066791196</v>
       </c>
-      <c r="C6" s="0">
+      <c r="E6">
         <v>-7.1429221869842312</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>1075000000</v>
       </c>
-      <c r="B7" s="0">
+      <c r="D7">
         <v>-12.003576974071461</v>
       </c>
-      <c r="C7" s="0">
+      <c r="E7">
         <v>-3.4666450300920997</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>1090000000</v>
       </c>
-      <c r="B8" s="0">
+      <c r="D8">
         <v>-13.854136390931313</v>
       </c>
-      <c r="C8" s="0">
+      <c r="E8">
         <v>-1.6487386151290653</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>1105000000</v>
       </c>
-      <c r="B9" s="0">
+      <c r="D9">
         <v>-14.032527606266502</v>
       </c>
-      <c r="C9" s="0">
+      <c r="E9">
         <v>-1.5331971239618489</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>1120000000</v>
       </c>
-      <c r="B10" s="0">
+      <c r="D10">
         <v>-11.513989302604067</v>
       </c>
-      <c r="C10" s="0">
+      <c r="E10">
         <v>-2.4449845776686758</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>1135000000</v>
       </c>
-      <c r="B11" s="0">
+      <c r="D11">
         <v>-7.5844834681066899</v>
       </c>
-      <c r="C11" s="0">
+      <c r="E11">
         <v>-5.95208222992638</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>1150000000</v>
       </c>
-      <c r="B12" s="0">
+      <c r="D12">
         <v>-6.7179094830126544</v>
       </c>
-      <c r="C12" s="0">
+      <c r="E12">
         <v>-6.0015980979064674</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>1165000000</v>
       </c>
-      <c r="B13" s="0">
+      <c r="D13">
         <v>-10.122883473242723</v>
       </c>
-      <c r="C13" s="0">
+      <c r="E13">
         <v>-2.6004560500297504</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>1180000000</v>
       </c>
-      <c r="B14" s="0">
+      <c r="D14">
         <v>-14.251734199515067</v>
       </c>
-      <c r="C14" s="0">
+      <c r="E14">
         <v>-1.6164343928853335</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>1195000000</v>
       </c>
-      <c r="B15" s="0">
+      <c r="D15">
         <v>-11.499140099641462</v>
       </c>
-      <c r="C15" s="0">
+      <c r="E15">
         <v>-1.4297034701125957</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>1210000000</v>
       </c>
-      <c r="B16" s="0">
+      <c r="D16">
         <v>-13.524845342971187</v>
       </c>
-      <c r="C16" s="0">
+      <c r="E16">
         <v>-2.1246623258036084</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>1225000000</v>
       </c>
-      <c r="B17" s="0">
+      <c r="D17">
         <v>-9.2349756272518597</v>
       </c>
-      <c r="C17" s="0">
+      <c r="E17">
         <v>-4.7257496839705873</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>1240000000</v>
       </c>
-      <c r="B18" s="0">
+      <c r="D18">
         <v>-7.2071612294493832</v>
       </c>
-      <c r="C18" s="0">
+      <c r="E18">
         <v>-6.635836231408339</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>1255000000</v>
       </c>
-      <c r="B19" s="0">
+      <c r="D19">
         <v>-14.204377913231976</v>
       </c>
-      <c r="C19" s="0">
+      <c r="E19">
         <v>-3.023775450266518</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>1270000000</v>
       </c>
-      <c r="B20" s="0">
+      <c r="D20">
         <v>-5.2149070864246845</v>
       </c>
-      <c r="C20" s="0">
+      <c r="E20">
         <v>-1.7930542724802296</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>1285000000</v>
       </c>
-      <c r="B21" s="0">
+      <c r="D21">
         <v>-3.5412986059001526</v>
       </c>
-      <c r="C21" s="0">
+      <c r="E21">
         <v>-1.5870625689972637</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>1300000000</v>
       </c>
-      <c r="B22" s="0">
+      <c r="D22">
         <v>-4.5600949160973734</v>
       </c>
-      <c r="C22" s="0">
+      <c r="E22">
         <v>-2.0511938016921492</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>1315000000</v>
       </c>
-      <c r="B23" s="0">
+      <c r="D23">
         <v>-9.9340135225116093</v>
       </c>
-      <c r="C23" s="0">
+      <c r="E23">
         <v>-4.413687278404975</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>1330000000</v>
       </c>
-      <c r="B24" s="0">
+      <c r="D24">
         <v>-5.0403644796930074</v>
       </c>
-      <c r="C24" s="0">
+      <c r="E24">
         <v>-8.811534794344178</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>1345000000</v>
       </c>
-      <c r="B25" s="0">
+      <c r="D25">
         <v>-3.3431817179841801</v>
       </c>
-      <c r="C25" s="0">
+      <c r="E25">
         <v>-5.0117861003409274</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>1360000000</v>
       </c>
-      <c r="B26" s="0">
+      <c r="D26">
         <v>-5.6979780960830482</v>
       </c>
-      <c r="C26" s="0">
+      <c r="E26">
         <v>-2.4661176790737289</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>1375000000</v>
       </c>
-      <c r="B27" s="0">
+      <c r="D27">
         <v>-8.4043384892886905</v>
       </c>
-      <c r="C27" s="0">
+      <c r="E27">
         <v>-1.7637418497250781</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>1390000000</v>
       </c>
-      <c r="B28" s="0">
+      <c r="D28">
         <v>-10.378840607996974</v>
       </c>
-      <c r="C28" s="0">
+      <c r="E28">
         <v>-2.234828059685726</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>1405000000</v>
       </c>
-      <c r="B29" s="0">
+      <c r="D29">
         <v>-4.5895535803952896</v>
       </c>
-      <c r="C29" s="0">
+      <c r="E29">
         <v>-4.9922777285613469</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>1420000000</v>
       </c>
-      <c r="B30" s="0">
+      <c r="D30">
         <v>-0.45493597932570395</v>
       </c>
-      <c r="C30" s="0">
+      <c r="E30">
         <v>-12.586343054293172</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>1435000000</v>
       </c>
-      <c r="B31" s="0">
+      <c r="D31">
         <v>-0.65562548485315375</v>
       </c>
-      <c r="C31" s="0">
+      <c r="E31">
         <v>-6.6026753373682983</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>1450000000</v>
       </c>
-      <c r="B32" s="0">
+      <c r="D32">
         <v>-7.3877761053244093</v>
       </c>
-      <c r="C32" s="0">
+      <c r="E32">
         <v>-3.7394679311136816</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>1465000000</v>
       </c>
-      <c r="B33" s="0">
+      <c r="D33">
         <v>-0.20879068888451968</v>
       </c>
-      <c r="C33" s="0">
+      <c r="E33">
         <v>-2.7688447934912848</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>1480000000</v>
       </c>
-      <c r="B34" s="0">
+      <c r="D34">
         <v>2.5895608740772929</v>
       </c>
-      <c r="C34" s="0">
+      <c r="E34">
         <v>-2.9903441689284103</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>1495000000</v>
       </c>
-      <c r="B35" s="0">
+      <c r="D35">
         <v>3.1623553268734348</v>
       </c>
-      <c r="C35" s="0">
+      <c r="E35">
         <v>-4.7642096465189203</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>1510000000</v>
       </c>
-      <c r="B36" s="0">
+      <c r="D36">
         <v>1.6864356078610534</v>
       </c>
-      <c r="C36" s="0">
+      <c r="E36">
         <v>-11.63819023719849</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>1525000000</v>
       </c>
-      <c r="B37" s="0">
+      <c r="D37">
         <v>-1.8570141494956118</v>
       </c>
-      <c r="C37" s="0">
+      <c r="E37">
         <v>-8.8143869125391046</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>1540000000</v>
       </c>
-      <c r="B38" s="0">
+      <c r="D38">
         <v>-2.6099357453783263</v>
       </c>
-      <c r="C38" s="0">
+      <c r="E38">
         <v>-3.8448047535527201</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>1555000000</v>
       </c>
-      <c r="B39" s="0">
+      <c r="D39">
         <v>-5.6039777193241171</v>
       </c>
-      <c r="C39" s="0">
+      <c r="E39">
         <v>-2.3011104798069599</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>1570000000</v>
       </c>
-      <c r="B40" s="0">
+      <c r="D40">
         <v>-1.3616960580081674</v>
       </c>
-      <c r="C40" s="0">
+      <c r="E40">
         <v>-2.8726155806048173</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>1585000000</v>
       </c>
-      <c r="B41" s="0">
+      <c r="D41">
         <v>-2.2311625533557624</v>
       </c>
-      <c r="C41" s="0">
+      <c r="E41">
         <v>-6.6511133936663471</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>1600000000</v>
       </c>
-      <c r="B42" s="0">
+      <c r="D42">
         <v>4.1442033938642524</v>
       </c>
-      <c r="C42" s="0">
+      <c r="E42">
         <v>-18.333056121809001</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <v>1615000000</v>
       </c>
-      <c r="B43" s="0">
+      <c r="D43">
         <v>5.5632213053806137</v>
       </c>
-      <c r="C43" s="0">
+      <c r="E43">
         <v>-10.856620541558314</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
         <v>1630000000</v>
       </c>
-      <c r="B44" s="0">
+      <c r="D44">
         <v>5.2802639651755303</v>
       </c>
-      <c r="C44" s="0">
+      <c r="E44">
         <v>-6.5749430779056741</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <v>1645000000</v>
       </c>
-      <c r="B45" s="0">
+      <c r="D45">
         <v>2.8728622246342148</v>
       </c>
-      <c r="C45" s="0">
+      <c r="E45">
         <v>-4.1824394077412403</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
         <v>1660000000</v>
       </c>
-      <c r="B46" s="0">
+      <c r="D46">
         <v>-6.6115982909478284</v>
       </c>
-      <c r="C46" s="0">
+      <c r="E46">
         <v>-6.5902719177240696</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
         <v>1675000000</v>
       </c>
-      <c r="B47" s="0">
+      <c r="D47">
         <v>0.63127824423520451</v>
       </c>
-      <c r="C47" s="0">
+      <c r="E47">
         <v>-7.8904370846412828</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
         <v>1690000000</v>
       </c>
-      <c r="B48" s="0">
+      <c r="D48">
         <v>6.0986540906708022</v>
       </c>
-      <c r="C48" s="0">
+      <c r="E48">
         <v>-5.8180140783211876</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
         <v>1705000000</v>
       </c>
-      <c r="B49" s="0">
+      <c r="D49">
         <v>7.7795797279392218</v>
       </c>
-      <c r="C49" s="0">
+      <c r="E49">
         <v>-6.3618816456173004</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
         <v>1720000000</v>
       </c>
-      <c r="B50" s="0">
+      <c r="D50">
         <v>8.2153548852782912</v>
       </c>
-      <c r="C50" s="0">
+      <c r="E50">
         <v>-7.3653202164246103</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
         <v>1735000000</v>
       </c>
-      <c r="B51" s="0">
+      <c r="D51">
         <v>8.526544400649108</v>
       </c>
-      <c r="C51" s="0">
+      <c r="E51">
         <v>-8.1110580027633485</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
         <v>1750000000</v>
       </c>
-      <c r="B52" s="0">
+      <c r="D52">
         <v>8.7654255181501153</v>
       </c>
-      <c r="C52" s="0">
+      <c r="E52">
         <v>-8.0201877608241237</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
         <v>1765000000</v>
       </c>
-      <c r="B53" s="0">
+      <c r="D53">
         <v>8.915214666093668</v>
       </c>
-      <c r="C53" s="0">
+      <c r="E53">
         <v>-8.2526797911637999</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
         <v>1780000000</v>
       </c>
-      <c r="B54" s="0">
+      <c r="D54">
         <v>9.019941973187553</v>
       </c>
-      <c r="C54" s="0">
+      <c r="E54">
         <v>-8.8981918325180924</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
         <v>1795000000</v>
       </c>
-      <c r="B55" s="0">
+      <c r="D55">
         <v>9.0622477678211606</v>
       </c>
-      <c r="C55" s="0">
+      <c r="E55">
         <v>-8.8841753324517079</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
         <v>1810000000</v>
       </c>
-      <c r="B56" s="0">
+      <c r="D56">
         <v>9.0752946642774326</v>
       </c>
-      <c r="C56" s="0">
+      <c r="E56">
         <v>-9.0106314226369619</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
         <v>1825000000</v>
       </c>
-      <c r="B57" s="0">
+      <c r="D57">
         <v>9.1210064245754658</v>
       </c>
-      <c r="C57" s="0">
+      <c r="E57">
         <v>-9.7625181156857117</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
         <v>1840000000</v>
       </c>
-      <c r="B58" s="0">
+      <c r="D58">
         <v>9.1541600584728915</v>
       </c>
-      <c r="C58" s="0">
+      <c r="E58">
         <v>-10.032728438039873</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
         <v>1855000000</v>
       </c>
-      <c r="B59" s="0">
+      <c r="D59">
         <v>9.2875620896339406</v>
       </c>
-      <c r="C59" s="0">
+      <c r="E59">
         <v>-10.251704177647202</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
         <v>1870000000</v>
       </c>
-      <c r="B60" s="0">
+      <c r="D60">
         <v>9.4188618440108574</v>
       </c>
-      <c r="C60" s="0">
+      <c r="E60">
         <v>-10.898513809673878</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
         <v>1885000000</v>
       </c>
-      <c r="B61" s="0">
+      <c r="D61">
         <v>9.5864390554941288</v>
       </c>
-      <c r="C61" s="0">
+      <c r="E61">
         <v>-11.380567669493988</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
         <v>1900000000</v>
       </c>
-      <c r="B62" s="0">
+      <c r="D62">
         <v>9.7327320509359101</v>
       </c>
-      <c r="C62" s="0">
+      <c r="E62">
         <v>-11.776129741639942</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
         <v>1915000000</v>
       </c>
-      <c r="B63" s="0">
+      <c r="D63">
         <v>9.8779138668531523</v>
       </c>
-      <c r="C63" s="0">
+      <c r="E63">
         <v>-11.997812293628893</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
         <v>1930000000</v>
       </c>
-      <c r="B64" s="0">
+      <c r="D64">
         <v>10.047479292360386</v>
       </c>
-      <c r="C64" s="0">
+      <c r="E64">
         <v>-12.725735916509848</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
         <v>1945000000</v>
       </c>
-      <c r="B65" s="0">
+      <c r="D65">
         <v>10.193101595377119</v>
       </c>
-      <c r="C65" s="0">
+      <c r="E65">
         <v>-13.382773996977944</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
         <v>1960000000</v>
       </c>
-      <c r="B66" s="0">
+      <c r="D66">
         <v>10.336045036416568</v>
       </c>
-      <c r="C66" s="0">
+      <c r="E66">
         <v>-13.541481018870138</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
         <v>1975000000</v>
       </c>
-      <c r="B67" s="0">
+      <c r="D67">
         <v>10.493191263634507</v>
       </c>
-      <c r="C67" s="0">
+      <c r="E67">
         <v>-14.321213196438066</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
         <v>1990000000</v>
       </c>
-      <c r="B68" s="0">
+      <c r="D68">
         <v>10.662668687227427</v>
       </c>
-      <c r="C68" s="0">
+      <c r="E68">
         <v>-15.354978324320825</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
         <v>2005000000</v>
       </c>
-      <c r="B69" s="0">
+      <c r="D69">
         <v>10.919095763389709</v>
       </c>
-      <c r="C69" s="0">
+      <c r="E69">
         <v>-15.084390270714625</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0">
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
         <v>2020000000</v>
       </c>
-      <c r="B70" s="0">
+      <c r="D70">
         <v>11.031196539998025</v>
       </c>
-      <c r="C70" s="0">
+      <c r="E70">
         <v>-15.627506653201866</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
         <v>2035000000</v>
       </c>
-      <c r="B71" s="0">
+      <c r="D71">
         <v>10.975100648625778</v>
       </c>
-      <c r="C71" s="0">
+      <c r="E71">
         <v>-16.081203636210773</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
         <v>2050000000</v>
       </c>
-      <c r="B72" s="0">
+      <c r="D72">
         <v>11.05631416336483</v>
       </c>
-      <c r="C72" s="0">
+      <c r="E72">
         <v>-15.506087138992491</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
         <v>2065000000</v>
       </c>
-      <c r="B73" s="0">
+      <c r="D73">
         <v>11.140734793214595</v>
       </c>
-      <c r="C73" s="0">
+      <c r="E73">
         <v>-16.071850184947291</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
         <v>2080000000</v>
       </c>
-      <c r="B74" s="0">
+      <c r="D74">
         <v>11.229397745159025</v>
       </c>
-      <c r="C74" s="0">
+      <c r="E74">
         <v>-17.141905654171687</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
         <v>2095000000</v>
       </c>
-      <c r="B75" s="0">
+      <c r="D75">
         <v>11.284858857759684</v>
       </c>
-      <c r="C75" s="0">
+      <c r="E75">
         <v>-16.591337632798449</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
         <v>2110000000</v>
       </c>
-      <c r="B76" s="0">
+      <c r="D76">
         <v>11.354881813100429</v>
       </c>
-      <c r="C76" s="0">
+      <c r="E76">
         <v>-17.686115830867951</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="0">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
         <v>2125000000</v>
       </c>
-      <c r="B77" s="0">
+      <c r="D77">
         <v>11.395675230215955</v>
       </c>
-      <c r="C77" s="0">
+      <c r="E77">
         <v>-19.910510055895411</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
         <v>2140000000</v>
       </c>
-      <c r="B78" s="0">
+      <c r="D78">
         <v>11.460333058583576</v>
       </c>
-      <c r="C78" s="0">
+      <c r="E78">
         <v>-20.821245901433983</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
         <v>2155000000</v>
       </c>
-      <c r="B79" s="0">
+      <c r="D79">
         <v>11.525849152705007</v>
       </c>
-      <c r="C79" s="0">
+      <c r="E79">
         <v>-20.172654374192387</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
         <v>2170000000</v>
       </c>
-      <c r="B80" s="0">
+      <c r="D80">
         <v>11.55293134298917</v>
       </c>
-      <c r="C80" s="0">
+      <c r="E80">
         <v>-21.051673062818878</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="0">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
         <v>2185000000</v>
       </c>
-      <c r="B81" s="0">
+      <c r="D81">
         <v>11.578881151813533</v>
       </c>
-      <c r="C81" s="0">
+      <c r="E81">
         <v>-22.488017504721999</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="0">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
         <v>2200000000</v>
       </c>
-      <c r="B82" s="0">
+      <c r="D82">
         <v>11.577519718770198</v>
       </c>
-      <c r="C82" s="0">
+      <c r="E82">
         <v>-19.670433299702612</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
         <v>2215000000</v>
       </c>
-      <c r="B83" s="0">
+      <c r="D83">
         <v>11.557924021087565</v>
       </c>
-      <c r="C83" s="0">
+      <c r="E83">
         <v>-16.138153980193401</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
         <v>2230000000</v>
       </c>
-      <c r="B84" s="0">
+      <c r="D84">
         <v>11.555080742847579</v>
       </c>
-      <c r="C84" s="0">
+      <c r="E84">
         <v>-16.216672574471296</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
         <v>2245000000</v>
       </c>
-      <c r="B85" s="0">
+      <c r="D85">
         <v>11.568247397890008</v>
       </c>
-      <c r="C85" s="0">
+      <c r="E85">
         <v>-15.804243414935165</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
         <v>2260000000</v>
       </c>
-      <c r="B86" s="0">
+      <c r="D86">
         <v>11.535634336502046</v>
       </c>
-      <c r="C86" s="0">
+      <c r="E86">
         <v>-13.248474419497917</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
         <v>2275000000</v>
       </c>
-      <c r="B87" s="0">
+      <c r="D87">
         <v>11.581226763238691</v>
       </c>
-      <c r="C87" s="0">
+      <c r="E87">
         <v>-12.923682880772871</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
         <v>2290000000</v>
       </c>
-      <c r="B88" s="0">
+      <c r="D88">
         <v>11.554069313842177</v>
       </c>
-      <c r="C88" s="0">
+      <c r="E88">
         <v>-13.863033859580325</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
         <v>2305000000</v>
       </c>
-      <c r="B89" s="0">
+      <c r="D89">
         <v>11.550242491964941</v>
       </c>
-      <c r="C89" s="0">
+      <c r="E89">
         <v>-12.913270492984294</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
         <v>2320000000</v>
       </c>
-      <c r="B90" s="0">
+      <c r="D90">
         <v>11.5129575874649</v>
       </c>
-      <c r="C90" s="0">
+      <c r="E90">
         <v>-12.37087593941839</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
         <v>2335000000</v>
       </c>
-      <c r="B91" s="0">
+      <c r="D91">
         <v>11.538316377974972</v>
       </c>
-      <c r="C91" s="0">
+      <c r="E91">
         <v>-13.744804923090721</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="0">
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
         <v>2350000000</v>
       </c>
-      <c r="B92" s="0">
+      <c r="D92">
         <v>11.479318986310776</v>
       </c>
-      <c r="C92" s="0">
+      <c r="E92">
         <v>-14.584051507651125</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="0">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
         <v>2365000000</v>
       </c>
-      <c r="B93" s="0">
+      <c r="D93">
         <v>11.433614293329136</v>
       </c>
-      <c r="C93" s="0">
+      <c r="E93">
         <v>-13.472591336470421</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="0">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
         <v>2380000000</v>
       </c>
-      <c r="B94" s="0">
+      <c r="D94">
         <v>11.318249142798024</v>
       </c>
-      <c r="C94" s="0">
+      <c r="E94">
         <v>-13.969889784951821</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="0">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
         <v>2395000000</v>
       </c>
-      <c r="B95" s="0">
+      <c r="D95">
         <v>11.222153566783483</v>
       </c>
-      <c r="C95" s="0">
+      <c r="E95">
         <v>-15.505728325136708</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="0">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
         <v>2410000000</v>
       </c>
-      <c r="B96" s="0">
+      <c r="D96">
         <v>11.045109274354452</v>
       </c>
-      <c r="C96" s="0">
+      <c r="E96">
         <v>-13.373591118654915</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="0">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
         <v>2425000000</v>
       </c>
-      <c r="B97" s="0">
+      <c r="D97">
         <v>10.822664837808375</v>
       </c>
-      <c r="C97" s="0">
+      <c r="E97">
         <v>-11.997110902101443</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="0">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
         <v>2440000000</v>
       </c>
-      <c r="B98" s="0">
+      <c r="D98">
         <v>10.630572512312575</v>
       </c>
-      <c r="C98" s="0">
+      <c r="E98">
         <v>-12.099876543997375</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="0">
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
         <v>2455000000</v>
       </c>
-      <c r="B99" s="0">
+      <c r="D99">
         <v>10.376365244458729</v>
       </c>
-      <c r="C99" s="0">
+      <c r="E99">
         <v>-10.379641226899082</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="0">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
         <v>2470000000</v>
       </c>
-      <c r="B100" s="0">
+      <c r="D100">
         <v>10.089201768913435</v>
       </c>
-      <c r="C100" s="0">
+      <c r="E100">
         <v>-9.2378485311558158</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="0">
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
         <v>2485000000</v>
       </c>
-      <c r="B101" s="0">
+      <c r="D101">
         <v>9.7715863685697482</v>
       </c>
-      <c r="C101" s="0">
+      <c r="E101">
         <v>-9.4009311130645656</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="0">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
         <v>2500000000</v>
       </c>
-      <c r="B102" s="0">
+      <c r="D102">
         <v>9.4765513927993172</v>
       </c>
-      <c r="C102" s="0">
+      <c r="E102">
         <v>-8.407226175825862</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="0">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
         <v>2515000000</v>
       </c>
-      <c r="B103" s="0">
+      <c r="D103">
         <v>9.1654347265864864</v>
       </c>
-      <c r="C103" s="0">
+      <c r="E103">
         <v>-8.2768878911235717</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="0">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
         <v>2530000000</v>
       </c>
-      <c r="B104" s="0">
+      <c r="D104">
         <v>8.8951211045780259</v>
       </c>
-      <c r="C104" s="0">
+      <c r="E104">
         <v>-8.5248999288800782</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="0">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
         <v>2545000000</v>
       </c>
-      <c r="B105" s="0">
+      <c r="D105">
         <v>8.5752225561494431</v>
       </c>
-      <c r="C105" s="0">
+      <c r="E105">
         <v>-8.4628474078807816</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="0">
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
         <v>2560000000</v>
       </c>
-      <c r="B106" s="0">
+      <c r="D106">
         <v>8.3014010398783267</v>
       </c>
-      <c r="C106" s="0">
+      <c r="E106">
         <v>-8.8387938842869431</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="0">
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
         <v>2575000000</v>
       </c>
-      <c r="B107" s="0">
+      <c r="D107">
         <v>7.908105928856024</v>
       </c>
-      <c r="C107" s="0">
+      <c r="E107">
         <v>-9.8203582212099843</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="0">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
         <v>2590000000</v>
       </c>
-      <c r="B108" s="0">
+      <c r="D108">
         <v>7.4612317934304251</v>
       </c>
-      <c r="C108" s="0">
+      <c r="E108">
         <v>-10.57316400383456</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="0">
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
         <v>2605000000</v>
       </c>
-      <c r="B109" s="0">
+      <c r="D109">
         <v>6.8256480422483161</v>
       </c>
-      <c r="C109" s="0">
+      <c r="E109">
         <v>-10.56436931430666</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="0">
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
         <v>2620000000</v>
       </c>
-      <c r="B110" s="0">
+      <c r="D110">
         <v>6.0804665952257686</v>
       </c>
-      <c r="C110" s="0">
+      <c r="E110">
         <v>-9.8219078993673943</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="0">
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
         <v>2635000000</v>
       </c>
-      <c r="B111" s="0">
+      <c r="D111">
         <v>5.2348326372048248</v>
       </c>
-      <c r="C111" s="0">
+      <c r="E111">
         <v>-9.4037939876365257</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="0">
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
         <v>2650000000</v>
       </c>
-      <c r="B112" s="0">
+      <c r="D112">
         <v>4.3189535010424507</v>
       </c>
-      <c r="C112" s="0">
+      <c r="E112">
         <v>-8.471287928235645</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="0">
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
         <v>2665000000</v>
       </c>
-      <c r="B113" s="0">
+      <c r="D113">
         <v>3.1672845482029537</v>
       </c>
-      <c r="C113" s="0">
+      <c r="E113">
         <v>-7.1993836690405209</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="0">
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
         <v>2680000000</v>
       </c>
-      <c r="B114" s="0">
+      <c r="D114">
         <v>2.1186760700697214</v>
       </c>
-      <c r="C114" s="0">
+      <c r="E114">
         <v>-7.0702573812385161</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="0">
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
         <v>2695000000</v>
       </c>
-      <c r="B115" s="0">
+      <c r="D115">
         <v>1.1256527382703609</v>
       </c>
-      <c r="C115" s="0">
+      <c r="E115">
         <v>-7.0346411849698276</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="0">
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
         <v>2710000000</v>
       </c>
-      <c r="B116" s="0">
-        <v>-0.06887450920786975</v>
-      </c>
-      <c r="C116" s="0">
+      <c r="D116">
+        <v>-6.887450920786975E-2</v>
+      </c>
+      <c r="E116">
         <v>-6.5456817488501331</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="0">
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
         <v>2725000000</v>
       </c>
-      <c r="B117" s="0">
+      <c r="D117">
         <v>-1.313648098712271</v>
       </c>
-      <c r="C117" s="0">
+      <c r="E117">
         <v>-7.036753750654194</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="0">
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
         <v>2740000000</v>
       </c>
-      <c r="B118" s="0">
+      <c r="D118">
         <v>-1.6967428391560411</v>
       </c>
-      <c r="C118" s="0">
+      <c r="E118">
         <v>-8.1553005518193995</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="0">
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
         <v>2755000000</v>
       </c>
-      <c r="B119" s="0">
+      <c r="D119">
         <v>-2.8759238658219815</v>
       </c>
-      <c r="C119" s="0">
+      <c r="E119">
         <v>-8.4626924446516565</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="0">
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
         <v>2770000000</v>
       </c>
-      <c r="B120" s="0">
+      <c r="D120">
         <v>-2.2025792407474647</v>
       </c>
-      <c r="C120" s="0">
+      <c r="E120">
         <v>-8.9521397505174818</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="0">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
         <v>2785000000</v>
       </c>
-      <c r="B121" s="0">
+      <c r="D121">
         <v>-2.4427986678480522</v>
       </c>
-      <c r="C121" s="0">
+      <c r="E121">
         <v>-9.4542108738854793</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="0">
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
         <v>2800000000</v>
       </c>
-      <c r="B122" s="0">
+      <c r="D122">
         <v>-2.3801508200652677</v>
       </c>
-      <c r="C122" s="0">
+      <c r="E122">
         <v>-8.6987930312586847</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="0">
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
         <v>2815000000</v>
       </c>
-      <c r="B123" s="0">
+      <c r="D123">
         <v>-2.4356387221833593</v>
       </c>
-      <c r="C123" s="0">
+      <c r="E123">
         <v>-7.4847905027270345</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="0">
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
         <v>2830000000</v>
       </c>
-      <c r="B124" s="0">
+      <c r="D124">
         <v>-1.6718316151678074</v>
       </c>
-      <c r="C124" s="0">
+      <c r="E124">
         <v>-7.2129939770349152</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="0">
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
         <v>2845000000</v>
       </c>
-      <c r="B125" s="0">
+      <c r="D125">
         <v>-1.7359121412556497</v>
       </c>
-      <c r="C125" s="0">
+      <c r="E125">
         <v>-6.9246942542209498</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="0">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
         <v>2860000000</v>
       </c>
-      <c r="B126" s="0">
+      <c r="D126">
         <v>-0.39762324542302352</v>
       </c>
-      <c r="C126" s="0">
+      <c r="E126">
         <v>-6.9226725322389342</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="0">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
         <v>2875000000</v>
       </c>
-      <c r="B127" s="0">
+      <c r="D127">
         <v>0.56687720881945225</v>
       </c>
-      <c r="C127" s="0">
+      <c r="E127">
         <v>-7.3731839921240621</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="0">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
         <v>2890000000</v>
       </c>
-      <c r="B128" s="0">
+      <c r="D128">
         <v>1.5676158234643012</v>
       </c>
-      <c r="C128" s="0">
+      <c r="E128">
         <v>-7.7430341614057498</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="0">
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
         <v>2905000000</v>
       </c>
-      <c r="B129" s="0">
+      <c r="D129">
         <v>2.2689546073216498</v>
       </c>
-      <c r="C129" s="0">
+      <c r="E129">
         <v>-9.3405086861825168</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="0">
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
         <v>2920000000</v>
       </c>
-      <c r="B130" s="0">
+      <c r="D130">
         <v>2.6709533687781395</v>
       </c>
-      <c r="C130" s="0">
+      <c r="E130">
         <v>-9.69366588026854</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="0">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
         <v>2935000000</v>
       </c>
-      <c r="B131" s="0">
+      <c r="D131">
         <v>2.6723643811385074</v>
       </c>
-      <c r="C131" s="0">
+      <c r="E131">
         <v>-7.8859615052706422</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="0">
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
         <v>2950000000</v>
       </c>
-      <c r="B132" s="0">
+      <c r="D132">
         <v>2.7386623704713031</v>
       </c>
-      <c r="C132" s="0">
+      <c r="E132">
         <v>-7.2926865299411947</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="0">
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
         <v>2965000000</v>
       </c>
-      <c r="B133" s="0">
+      <c r="D133">
         <v>2.7693866046741888</v>
       </c>
-      <c r="C133" s="0">
+      <c r="E133">
         <v>-7.4268692565244301</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="0">
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
         <v>2980000000</v>
       </c>
-      <c r="B134" s="0">
+      <c r="D134">
         <v>3.1172901130670674</v>
       </c>
-      <c r="C134" s="0">
+      <c r="E134">
         <v>-6.113092262781608</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="0">
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
         <v>2995000000</v>
       </c>
-      <c r="B135" s="0">
+      <c r="D135">
         <v>3.4462199035535548</v>
       </c>
-      <c r="C135" s="0">
+      <c r="E135">
         <v>-6.6625472619057007</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="0">
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
         <v>3010000000</v>
       </c>
-      <c r="B136" s="0">
+      <c r="D136">
         <v>4.1497833642205038</v>
       </c>
-      <c r="C136" s="0">
+      <c r="E136">
         <v>-8.5552687760789166</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="0">
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
         <v>3025000000</v>
       </c>
-      <c r="B137" s="0">
+      <c r="D137">
         <v>4.0928566922037781</v>
       </c>
-      <c r="C137" s="0">
+      <c r="E137">
         <v>-9.8186859449846438</v>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="0">
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
         <v>3040000000</v>
       </c>
-      <c r="B138" s="0">
+      <c r="D138">
         <v>3.0171088612426615</v>
       </c>
-      <c r="C138" s="0">
+      <c r="E138">
         <v>-9.4103022867846562</v>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="0">
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
         <v>3055000000</v>
       </c>
-      <c r="B139" s="0">
+      <c r="D139">
         <v>1.755393005188445</v>
       </c>
-      <c r="C139" s="0">
+      <c r="E139">
         <v>-8.6365475933140488</v>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="0">
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
         <v>3070000000</v>
       </c>
-      <c r="B140" s="0">
+      <c r="D140">
         <v>0.50087336381299608</v>
       </c>
-      <c r="C140" s="0">
+      <c r="E140">
         <v>-7.4268882534759664</v>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="0">
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
         <v>3085000000</v>
       </c>
-      <c r="B141" s="0">
-        <v>0.0035211808753778939</v>
-      </c>
-      <c r="C141" s="0">
+      <c r="D141">
+        <v>3.5211808753778939E-3</v>
+      </c>
+      <c r="E141">
         <v>-6.4834400469100562</v>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="0">
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
         <v>3100000000</v>
       </c>
-      <c r="B142" s="0">
-        <v>0.049275073042277739</v>
-      </c>
-      <c r="C142" s="0">
+      <c r="D142">
+        <v>4.9275073042277739E-2</v>
+      </c>
+      <c r="E142">
         <v>-7.0712780538209632</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="0">
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
         <v>3115000000</v>
       </c>
-      <c r="B143" s="0">
+      <c r="D143">
         <v>0.54493990917727331</v>
       </c>
-      <c r="C143" s="0">
+      <c r="E143">
         <v>-9.9721367555229978</v>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="0">
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
         <v>3130000000</v>
       </c>
-      <c r="B144" s="0">
+      <c r="D144">
         <v>0.31015804927016788</v>
       </c>
-      <c r="C144" s="0">
+      <c r="E144">
         <v>-12.639470989151091</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="0">
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
         <v>3145000000</v>
       </c>
-      <c r="B145" s="0">
+      <c r="D145">
         <v>-0.39930352441988148</v>
       </c>
-      <c r="C145" s="0">
+      <c r="E145">
         <v>-9.6443184597344001</v>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="0">
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
         <v>3160000000</v>
       </c>
-      <c r="B146" s="0">
+      <c r="D146">
         <v>-1.0943328002233379</v>
       </c>
-      <c r="C146" s="0">
+      <c r="E146">
         <v>-8.0181862929010208</v>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="0">
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
         <v>3175000000</v>
       </c>
-      <c r="B147" s="0">
+      <c r="D147">
         <v>-1.0010484801303861</v>
       </c>
-      <c r="C147" s="0">
+      <c r="E147">
         <v>-7.1448422695596747</v>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="0">
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
         <v>3190000000</v>
       </c>
-      <c r="B148" s="0">
+      <c r="D148">
         <v>-0.50993691796814389</v>
       </c>
-      <c r="C148" s="0">
+      <c r="E148">
         <v>-7.5388323000270052</v>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="0">
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
         <v>3205000000</v>
       </c>
-      <c r="B149" s="0">
+      <c r="D149">
         <v>0.84876858113626241</v>
       </c>
-      <c r="C149" s="0">
+      <c r="E149">
         <v>-10.401877796573181</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="0">
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
         <v>3220000000</v>
       </c>
-      <c r="B150" s="0">
+      <c r="D150">
         <v>1.4177261928527152</v>
       </c>
-      <c r="C150" s="0">
+      <c r="E150">
         <v>-15.374673647834921</v>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="0">
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
         <v>3235000000</v>
       </c>
-      <c r="B151" s="0">
+      <c r="D151">
         <v>0.9471807823337457</v>
       </c>
-      <c r="C151" s="0">
+      <c r="E151">
         <v>-11.54237325221734</v>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="0">
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
         <v>3250000000</v>
       </c>
-      <c r="B152" s="0">
-        <v>0.076510307871007655</v>
-      </c>
-      <c r="C152" s="0">
+      <c r="D152">
+        <v>7.6510307871007655E-2</v>
+      </c>
+      <c r="E152">
         <v>-9.0914055827970248</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="0">
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
         <v>3265000000</v>
       </c>
-      <c r="B153" s="0">
+      <c r="D153">
         <v>-0.23745115058484245</v>
       </c>
-      <c r="C153" s="0">
+      <c r="E153">
         <v>-8.0468540884194013</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="0">
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
         <v>3280000000</v>
       </c>
-      <c r="B154" s="0">
+      <c r="D154">
         <v>0.19310082841275999</v>
       </c>
-      <c r="C154" s="0">
+      <c r="E154">
         <v>-8.5915603969629846</v>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="0">
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
         <v>3295000000</v>
       </c>
-      <c r="B155" s="0">
+      <c r="D155">
         <v>0.20794730793434368</v>
       </c>
-      <c r="C155" s="0">
+      <c r="E155">
         <v>-13.337001490725537</v>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="0">
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
         <v>3310000000</v>
       </c>
-      <c r="B156" s="0">
+      <c r="D156">
         <v>0.68564966339675593</v>
       </c>
-      <c r="C156" s="0">
+      <c r="E156">
         <v>-15.904956007120237</v>
       </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="0">
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
         <v>3325000000</v>
       </c>
-      <c r="B157" s="0">
-        <v>0.040053634371812308</v>
-      </c>
-      <c r="C157" s="0">
+      <c r="D157">
+        <v>4.0053634371812308E-2</v>
+      </c>
+      <c r="E157">
         <v>-9.6037727830464963</v>
       </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="0">
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
         <v>3340000000</v>
       </c>
-      <c r="B158" s="0">
+      <c r="D158">
         <v>-0.65963233506101204</v>
       </c>
-      <c r="C158" s="0">
+      <c r="E158">
         <v>-8.2420396268613239</v>
       </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="0">
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
         <v>3355000000</v>
       </c>
-      <c r="B159" s="0">
+      <c r="D159">
         <v>-0.96990058135595802</v>
       </c>
-      <c r="C159" s="0">
+      <c r="E159">
         <v>-9.212195976762878</v>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="0">
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
         <v>3370000000</v>
       </c>
-      <c r="B160" s="0">
+      <c r="D160">
         <v>-1.0553170011748989</v>
       </c>
-      <c r="C160" s="0">
+      <c r="E160">
         <v>-8.9614535757161633</v>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="0">
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
         <v>3385000000</v>
       </c>
-      <c r="B161" s="0">
+      <c r="D161">
         <v>-0.49319114985857837</v>
       </c>
-      <c r="C161" s="0">
+      <c r="E161">
         <v>-11.020560538842993</v>
       </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="0">
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
         <v>3400000000</v>
       </c>
-      <c r="B162" s="0">
+      <c r="D162">
         <v>-0.93891456468825041</v>
       </c>
-      <c r="C162" s="0">
+      <c r="E162">
         <v>-12.649038184110182</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="0">
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
         <v>3415000000</v>
       </c>
-      <c r="B163" s="0">
+      <c r="D163">
         <v>-2.545129156647608</v>
       </c>
-      <c r="C163" s="0">
+      <c r="E163">
         <v>-8.9051532143385437</v>
       </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="0">
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
         <v>3430000000</v>
       </c>
-      <c r="B164" s="0">
+      <c r="D164">
         <v>-3.2268866452439191</v>
       </c>
-      <c r="C164" s="0">
+      <c r="E164">
         <v>-7.0754711453530215</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="0">
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
         <v>3445000000</v>
       </c>
-      <c r="B165" s="0">
+      <c r="D165">
         <v>-3.2626020028811702</v>
       </c>
-      <c r="C165" s="0">
+      <c r="E165">
         <v>-8.0337704273067008</v>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="0">
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
         <v>3460000000</v>
       </c>
-      <c r="B166" s="0">
+      <c r="D166">
         <v>-3.6493479051669091</v>
       </c>
-      <c r="C166" s="0">
+      <c r="E166">
         <v>-8.0447601365697956</v>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="0">
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>0</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
         <v>3475000000</v>
       </c>
-      <c r="B167" s="0">
+      <c r="D167">
         <v>-4.6044446115181543</v>
       </c>
-      <c r="C167" s="0">
+      <c r="E167">
         <v>-7.5250005200755243</v>
       </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="0">
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
         <v>3490000000</v>
       </c>
-      <c r="B168" s="0">
+      <c r="D168">
         <v>-4.9204160092815883</v>
       </c>
-      <c r="C168" s="0">
+      <c r="E168">
         <v>-7.8432829780834501</v>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="0">
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
         <v>3505000000</v>
       </c>
-      <c r="B169" s="0">
+      <c r="D169">
         <v>-8.3630647392889657</v>
       </c>
-      <c r="C169" s="0">
+      <c r="E169">
         <v>-8.914014846057988</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="0">
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
         <v>3520000000</v>
       </c>
-      <c r="B170" s="0">
+      <c r="D170">
         <v>-8.3971069438227097</v>
       </c>
-      <c r="C170" s="0">
+      <c r="E170">
         <v>-9.0174862014006472</v>
       </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="0">
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
         <v>3535000000</v>
       </c>
-      <c r="B171" s="0">
+      <c r="D171">
         <v>-6.4476354084746923</v>
       </c>
-      <c r="C171" s="0">
+      <c r="E171">
         <v>-9.9586035269443016</v>
       </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="0">
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
         <v>3550000000</v>
       </c>
-      <c r="B172" s="0">
+      <c r="D172">
         <v>-7.0129127753133353</v>
       </c>
-      <c r="C172" s="0">
+      <c r="E172">
         <v>-12.711262424044138</v>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="0">
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
         <v>3565000000</v>
       </c>
-      <c r="B173" s="0">
+      <c r="D173">
         <v>-4.9713748139641822</v>
       </c>
-      <c r="C173" s="0">
+      <c r="E173">
         <v>-12.946526976015239</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="0">
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
         <v>3580000000</v>
       </c>
-      <c r="B174" s="0">
+      <c r="D174">
         <v>-9.1361597771994916</v>
       </c>
-      <c r="C174" s="0">
+      <c r="E174">
         <v>-13.795302071880295</v>
       </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="0">
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
         <v>3595000000</v>
       </c>
-      <c r="B175" s="0">
+      <c r="D175">
         <v>-10.30343169756852</v>
       </c>
-      <c r="C175" s="0">
+      <c r="E175">
         <v>-14.501635111241239</v>
       </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="0">
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
         <v>3610000000</v>
       </c>
-      <c r="B176" s="0">
+      <c r="D176">
         <v>-6.585622767121194</v>
       </c>
-      <c r="C176" s="0">
+      <c r="E176">
         <v>-14.686423701145007</v>
       </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="0">
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
         <v>3625000000</v>
       </c>
-      <c r="B177" s="0">
+      <c r="D177">
         <v>-7.1023089263102079</v>
       </c>
-      <c r="C177" s="0">
+      <c r="E177">
         <v>-15.058695101024803</v>
       </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="0">
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
         <v>3640000000</v>
       </c>
-      <c r="B178" s="0">
+      <c r="D178">
         <v>-5.191628238645869</v>
       </c>
-      <c r="C178" s="0">
+      <c r="E178">
         <v>-14.600530925324806</v>
       </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="0">
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
         <v>3655000000</v>
       </c>
-      <c r="B179" s="0">
+      <c r="D179">
         <v>-4.4973008511207802</v>
       </c>
-      <c r="C179" s="0">
+      <c r="E179">
         <v>-16.266582539259666</v>
       </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="0">
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
         <v>3670000000</v>
       </c>
-      <c r="B180" s="0">
+      <c r="D180">
         <v>-4.0125214867489483</v>
       </c>
-      <c r="C180" s="0">
+      <c r="E180">
         <v>-17.117543205698208</v>
       </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="0">
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
         <v>3685000000</v>
       </c>
-      <c r="B181" s="0">
+      <c r="D181">
         <v>-4.0538005162289394</v>
       </c>
-      <c r="C181" s="0">
+      <c r="E181">
         <v>-14.501693408104543</v>
       </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="0">
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
         <v>3700000000</v>
       </c>
-      <c r="B182" s="0">
+      <c r="D182">
         <v>-3.8802043942349869</v>
       </c>
-      <c r="C182" s="0">
+      <c r="E182">
         <v>-16.553499433985557</v>
       </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="0">
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
         <v>3715000000</v>
       </c>
-      <c r="B183" s="0">
+      <c r="D183">
         <v>-2.6544725539122176</v>
       </c>
-      <c r="C183" s="0">
+      <c r="E183">
         <v>-16.694174066379965</v>
       </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="0">
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
         <v>3730000000</v>
       </c>
-      <c r="B184" s="0">
+      <c r="D184">
         <v>-3.0912023552150174</v>
       </c>
-      <c r="C184" s="0">
+      <c r="E184">
         <v>-14.020040673760557</v>
       </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="0">
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
         <v>3745000000</v>
       </c>
-      <c r="B185" s="0">
+      <c r="D185">
         <v>-3.0925238531558286</v>
       </c>
-      <c r="C185" s="0">
+      <c r="E185">
         <v>-14.845328562139342</v>
       </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="0">
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>0</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
         <v>3760000000</v>
       </c>
-      <c r="B186" s="0">
+      <c r="D186">
         <v>-2.9148112889721745</v>
       </c>
-      <c r="C186" s="0">
+      <c r="E186">
         <v>-15.173367233333925</v>
       </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="0">
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
         <v>3775000000</v>
       </c>
-      <c r="B187" s="0">
+      <c r="D187">
         <v>-5.0422368555618142</v>
       </c>
-      <c r="C187" s="0">
+      <c r="E187">
         <v>-14.602715017537658</v>
       </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="0">
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
         <v>3790000000</v>
       </c>
-      <c r="B188" s="0">
+      <c r="D188">
         <v>-4.6515663726709988</v>
       </c>
-      <c r="C188" s="0">
+      <c r="E188">
         <v>-14.082963687518333</v>
       </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="0">
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
         <v>3805000000</v>
       </c>
-      <c r="B189" s="0">
+      <c r="D189">
         <v>-3.7351442859655748</v>
       </c>
-      <c r="C189" s="0">
+      <c r="E189">
         <v>-14.544483247557086</v>
       </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="0">
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
         <v>3820000000</v>
       </c>
-      <c r="B190" s="0">
+      <c r="D190">
         <v>-5.8656881855115444</v>
       </c>
-      <c r="C190" s="0">
+      <c r="E190">
         <v>-14.884529096475987</v>
       </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="0">
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
         <v>3835000000</v>
       </c>
-      <c r="B191" s="0">
+      <c r="D191">
         <v>-5.9233270168711023</v>
       </c>
-      <c r="C191" s="0">
+      <c r="E191">
         <v>-14.183345009872127</v>
       </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="0">
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
         <v>3850000000</v>
       </c>
-      <c r="B192" s="0">
+      <c r="D192">
         <v>-5.9391225497391389</v>
       </c>
-      <c r="C192" s="0">
+      <c r="E192">
         <v>-13.804047489692417</v>
       </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="0">
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
         <v>3865000000</v>
       </c>
-      <c r="B193" s="0">
+      <c r="D193">
         <v>-6.0109213023840304</v>
       </c>
-      <c r="C193" s="0">
+      <c r="E193">
         <v>-13.835943524120058</v>
       </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="0">
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
         <v>3880000000</v>
       </c>
-      <c r="B194" s="0">
+      <c r="D194">
         <v>-6.6061305584576822</v>
       </c>
-      <c r="C194" s="0">
+      <c r="E194">
         <v>-13.446713148248621</v>
       </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="0">
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
         <v>3895000000</v>
       </c>
-      <c r="B195" s="0">
+      <c r="D195">
         <v>-7.1478161048358615</v>
       </c>
-      <c r="C195" s="0">
+      <c r="E195">
         <v>-13.76720759864784</v>
       </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="0">
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
         <v>3910000000</v>
       </c>
-      <c r="B196" s="0">
+      <c r="D196">
         <v>-6.1063562313680784</v>
       </c>
-      <c r="C196" s="0">
+      <c r="E196">
         <v>-12.379490463931495</v>
       </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="0">
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
         <v>3925000000</v>
       </c>
-      <c r="B197" s="0">
+      <c r="D197">
         <v>-7.2238799894103138</v>
       </c>
-      <c r="C197" s="0">
+      <c r="E197">
         <v>-13.552586398982529</v>
       </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="0">
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
         <v>3940000000</v>
       </c>
-      <c r="B198" s="0">
+      <c r="D198">
         <v>-10.695546306624863</v>
       </c>
-      <c r="C198" s="0">
+      <c r="E198">
         <v>-15.165224233098659</v>
       </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="0">
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
         <v>3955000000</v>
       </c>
-      <c r="B199" s="0">
+      <c r="D199">
         <v>-7.8105070749890579</v>
       </c>
-      <c r="C199" s="0">
+      <c r="E199">
         <v>-12.908442861007156</v>
       </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="0">
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
         <v>3970000000</v>
       </c>
-      <c r="B200" s="0">
+      <c r="D200">
         <v>-7.744290155765551</v>
       </c>
-      <c r="C200" s="0">
+      <c r="E200">
         <v>-13.798535531182171</v>
       </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="0">
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
         <v>3985000000</v>
       </c>
-      <c r="B201" s="0">
+      <c r="D201">
         <v>-15.178357321338805</v>
       </c>
-      <c r="C201" s="0">
+      <c r="E201">
         <v>-15.58329295768289</v>
       </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="0">
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
         <v>4000000000</v>
       </c>
-      <c r="B202" s="0">
+      <c r="D202">
         <v>-13.04473494610928</v>
       </c>
-      <c r="C202" s="0">
+      <c r="E202">
         <v>-13.672625961429164</v>
       </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Antenna/BoresightGainDataHelicalAntennas.xlsx
+++ b/data/Antenna/BoresightGainDataHelicalAntennas.xlsx
@@ -5,25 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josea\Documents\GitHub\AutomatedRadioEvaluationSuite\data\Antenna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davis\Documents\GitHub\AutomatedRadioEvaluationSuite\data\Antenna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4687913F-CCF2-44EC-B3DB-68D330DA3B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED605006-F53F-4506-8F16-36218DCA643D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9495" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Frequency (Hz)</t>
-  </si>
   <si>
     <t>Gain (dBi)</t>
   </si>
@@ -38,6 +48,9 @@
   </si>
   <si>
     <t>Return Loss (deg)</t>
+  </si>
+  <si>
+    <t>Frequency (MHz)</t>
   </si>
 </sst>
 </file>
@@ -409,39 +422,39 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -449,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1000000000</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>-11.008595878716942</v>
@@ -461,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -469,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1015000000</v>
+        <v>1015</v>
       </c>
       <c r="D3">
         <v>-11.212376549828384</v>
@@ -481,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -489,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1030000000</v>
+        <v>1030</v>
       </c>
       <c r="D4">
         <v>-13.624513360781382</v>
@@ -501,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -509,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1045000000</v>
+        <v>1045</v>
       </c>
       <c r="D5">
         <v>-12.282942531738357</v>
@@ -521,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -529,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1060000000</v>
+        <v>1060</v>
       </c>
       <c r="D6">
         <v>-10.380894066791196</v>
@@ -541,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -549,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1075000000</v>
+        <v>1075</v>
       </c>
       <c r="D7">
         <v>-12.003576974071461</v>
@@ -561,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -569,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1090000000</v>
+        <v>1090</v>
       </c>
       <c r="D8">
         <v>-13.854136390931313</v>
@@ -581,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -589,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1105000000</v>
+        <v>1105</v>
       </c>
       <c r="D9">
         <v>-14.032527606266502</v>
@@ -601,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -609,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1120000000</v>
+        <v>1120</v>
       </c>
       <c r="D10">
         <v>-11.513989302604067</v>
@@ -621,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -629,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1135000000</v>
+        <v>1135</v>
       </c>
       <c r="D11">
         <v>-7.5844834681066899</v>
@@ -641,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -649,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1150000000</v>
+        <v>1150</v>
       </c>
       <c r="D12">
         <v>-6.7179094830126544</v>
@@ -661,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -669,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1165000000</v>
+        <v>1165</v>
       </c>
       <c r="D13">
         <v>-10.122883473242723</v>
@@ -681,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -689,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1180000000</v>
+        <v>1180</v>
       </c>
       <c r="D14">
         <v>-14.251734199515067</v>
@@ -701,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -709,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1195000000</v>
+        <v>1195</v>
       </c>
       <c r="D15">
         <v>-11.499140099641462</v>
@@ -721,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -729,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1210000000</v>
+        <v>1210</v>
       </c>
       <c r="D16">
         <v>-13.524845342971187</v>
@@ -741,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -749,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1225000000</v>
+        <v>1225</v>
       </c>
       <c r="D17">
         <v>-9.2349756272518597</v>
@@ -761,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -769,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1240000000</v>
+        <v>1240</v>
       </c>
       <c r="D18">
         <v>-7.2071612294493832</v>
@@ -781,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -789,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1255000000</v>
+        <v>1255</v>
       </c>
       <c r="D19">
         <v>-14.204377913231976</v>
@@ -801,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -809,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1270000000</v>
+        <v>1270</v>
       </c>
       <c r="D20">
         <v>-5.2149070864246845</v>
@@ -821,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -829,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1285000000</v>
+        <v>1285</v>
       </c>
       <c r="D21">
         <v>-3.5412986059001526</v>
@@ -841,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -849,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1300000000</v>
+        <v>1300</v>
       </c>
       <c r="D22">
         <v>-4.5600949160973734</v>
@@ -861,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -869,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1315000000</v>
+        <v>1315</v>
       </c>
       <c r="D23">
         <v>-9.9340135225116093</v>
@@ -881,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -889,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1330000000</v>
+        <v>1330</v>
       </c>
       <c r="D24">
         <v>-5.0403644796930074</v>
@@ -901,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -909,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1345000000</v>
+        <v>1345</v>
       </c>
       <c r="D25">
         <v>-3.3431817179841801</v>
@@ -921,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -929,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1360000000</v>
+        <v>1360</v>
       </c>
       <c r="D26">
         <v>-5.6979780960830482</v>
@@ -941,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -949,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1375000000</v>
+        <v>1375</v>
       </c>
       <c r="D27">
         <v>-8.4043384892886905</v>
@@ -961,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -969,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1390000000</v>
+        <v>1390</v>
       </c>
       <c r="D28">
         <v>-10.378840607996974</v>
@@ -981,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -989,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1405000000</v>
+        <v>1405</v>
       </c>
       <c r="D29">
         <v>-4.5895535803952896</v>
@@ -1001,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1009,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1420000000</v>
+        <v>1420</v>
       </c>
       <c r="D30">
         <v>-0.45493597932570395</v>
@@ -1021,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1029,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1435000000</v>
+        <v>1435</v>
       </c>
       <c r="D31">
         <v>-0.65562548485315375</v>
@@ -1041,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1049,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1450000000</v>
+        <v>1450</v>
       </c>
       <c r="D32">
         <v>-7.3877761053244093</v>
@@ -1061,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1069,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1465000000</v>
+        <v>1465</v>
       </c>
       <c r="D33">
         <v>-0.20879068888451968</v>
@@ -1081,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1089,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1480000000</v>
+        <v>1480</v>
       </c>
       <c r="D34">
         <v>2.5895608740772929</v>
@@ -1101,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1109,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1495000000</v>
+        <v>1495</v>
       </c>
       <c r="D35">
         <v>3.1623553268734348</v>
@@ -1121,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1129,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1510000000</v>
+        <v>1510</v>
       </c>
       <c r="D36">
         <v>1.6864356078610534</v>
@@ -1141,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -1149,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1525000000</v>
+        <v>1525</v>
       </c>
       <c r="D37">
         <v>-1.8570141494956118</v>
@@ -1161,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1169,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1540000000</v>
+        <v>1540</v>
       </c>
       <c r="D38">
         <v>-2.6099357453783263</v>
@@ -1181,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -1189,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1555000000</v>
+        <v>1555</v>
       </c>
       <c r="D39">
         <v>-5.6039777193241171</v>
@@ -1201,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1209,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1570000000</v>
+        <v>1570</v>
       </c>
       <c r="D40">
         <v>-1.3616960580081674</v>
@@ -1221,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -1229,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1585000000</v>
+        <v>1585</v>
       </c>
       <c r="D41">
         <v>-2.2311625533557624</v>
@@ -1241,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -1249,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1600000000</v>
+        <v>1600</v>
       </c>
       <c r="D42">
         <v>4.1442033938642524</v>
@@ -1261,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -1269,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1615000000</v>
+        <v>1615</v>
       </c>
       <c r="D43">
         <v>5.5632213053806137</v>
@@ -1281,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -1289,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1630000000</v>
+        <v>1630</v>
       </c>
       <c r="D44">
         <v>5.2802639651755303</v>
@@ -1301,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -1309,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1645000000</v>
+        <v>1645</v>
       </c>
       <c r="D45">
         <v>2.8728622246342148</v>
@@ -1321,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -1329,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>1660000000</v>
+        <v>1660</v>
       </c>
       <c r="D46">
         <v>-6.6115982909478284</v>
@@ -1341,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -1349,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1675000000</v>
+        <v>1675</v>
       </c>
       <c r="D47">
         <v>0.63127824423520451</v>
@@ -1361,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -1369,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1690000000</v>
+        <v>1690</v>
       </c>
       <c r="D48">
         <v>6.0986540906708022</v>
@@ -1381,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -1389,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1705000000</v>
+        <v>1705</v>
       </c>
       <c r="D49">
         <v>7.7795797279392218</v>
@@ -1401,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -1409,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1720000000</v>
+        <v>1720</v>
       </c>
       <c r="D50">
         <v>8.2153548852782912</v>
@@ -1421,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -1429,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1735000000</v>
+        <v>1735</v>
       </c>
       <c r="D51">
         <v>8.526544400649108</v>
@@ -1441,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1449,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1750000000</v>
+        <v>1750</v>
       </c>
       <c r="D52">
         <v>8.7654255181501153</v>
@@ -1461,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1469,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1765000000</v>
+        <v>1765</v>
       </c>
       <c r="D53">
         <v>8.915214666093668</v>
@@ -1481,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1489,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1780000000</v>
+        <v>1780</v>
       </c>
       <c r="D54">
         <v>9.019941973187553</v>
@@ -1501,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1509,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1795000000</v>
+        <v>1795</v>
       </c>
       <c r="D55">
         <v>9.0622477678211606</v>
@@ -1521,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
@@ -1529,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1810000000</v>
+        <v>1810</v>
       </c>
       <c r="D56">
         <v>9.0752946642774326</v>
@@ -1541,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -1549,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1825000000</v>
+        <v>1825</v>
       </c>
       <c r="D57">
         <v>9.1210064245754658</v>
@@ -1561,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -1569,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1840000000</v>
+        <v>1840</v>
       </c>
       <c r="D58">
         <v>9.1541600584728915</v>
@@ -1581,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -1589,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>1855000000</v>
+        <v>1855</v>
       </c>
       <c r="D59">
         <v>9.2875620896339406</v>
@@ -1601,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -1609,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>1870000000</v>
+        <v>1870</v>
       </c>
       <c r="D60">
         <v>9.4188618440108574</v>
@@ -1621,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -1629,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>1885000000</v>
+        <v>1885</v>
       </c>
       <c r="D61">
         <v>9.5864390554941288</v>
@@ -1641,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -1649,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>1900000000</v>
+        <v>1900</v>
       </c>
       <c r="D62">
         <v>9.7327320509359101</v>
@@ -1661,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -1669,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>1915000000</v>
+        <v>1915</v>
       </c>
       <c r="D63">
         <v>9.8779138668531523</v>
@@ -1681,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0</v>
       </c>
@@ -1689,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>1930000000</v>
+        <v>1930</v>
       </c>
       <c r="D64">
         <v>10.047479292360386</v>
@@ -1701,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -1709,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1945000000</v>
+        <v>1945</v>
       </c>
       <c r="D65">
         <v>10.193101595377119</v>
@@ -1721,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -1729,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1960000000</v>
+        <v>1960</v>
       </c>
       <c r="D66">
         <v>10.336045036416568</v>
@@ -1741,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -1749,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>1975000000</v>
+        <v>1975</v>
       </c>
       <c r="D67">
         <v>10.493191263634507</v>
@@ -1761,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -1769,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>1990000000</v>
+        <v>1990</v>
       </c>
       <c r="D68">
         <v>10.662668687227427</v>
@@ -1781,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -1789,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>2005000000</v>
+        <v>2005</v>
       </c>
       <c r="D69">
         <v>10.919095763389709</v>
@@ -1801,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
@@ -1809,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>2020000000</v>
+        <v>2020</v>
       </c>
       <c r="D70">
         <v>11.031196539998025</v>
@@ -1821,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -1829,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>2035000000</v>
+        <v>2035</v>
       </c>
       <c r="D71">
         <v>10.975100648625778</v>
@@ -1841,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0</v>
       </c>
@@ -1849,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>2050000000</v>
+        <v>2050</v>
       </c>
       <c r="D72">
         <v>11.05631416336483</v>
@@ -1861,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -1869,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>2065000000</v>
+        <v>2065</v>
       </c>
       <c r="D73">
         <v>11.140734793214595</v>
@@ -1881,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -1889,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2080000000</v>
+        <v>2080</v>
       </c>
       <c r="D74">
         <v>11.229397745159025</v>
@@ -1901,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -1909,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>2095000000</v>
+        <v>2095</v>
       </c>
       <c r="D75">
         <v>11.284858857759684</v>
@@ -1921,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -1929,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>2110000000</v>
+        <v>2110</v>
       </c>
       <c r="D76">
         <v>11.354881813100429</v>
@@ -1941,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0</v>
       </c>
@@ -1949,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>2125000000</v>
+        <v>2125</v>
       </c>
       <c r="D77">
         <v>11.395675230215955</v>
@@ -1961,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -1969,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>2140000000</v>
+        <v>2140</v>
       </c>
       <c r="D78">
         <v>11.460333058583576</v>
@@ -1981,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -1989,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>2155000000</v>
+        <v>2155</v>
       </c>
       <c r="D79">
         <v>11.525849152705007</v>
@@ -2001,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -2009,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>2170000000</v>
+        <v>2170</v>
       </c>
       <c r="D80">
         <v>11.55293134298917</v>
@@ -2021,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0</v>
       </c>
@@ -2029,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>2185000000</v>
+        <v>2185</v>
       </c>
       <c r="D81">
         <v>11.578881151813533</v>
@@ -2041,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0</v>
       </c>
@@ -2049,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>2200000000</v>
+        <v>2200</v>
       </c>
       <c r="D82">
         <v>11.577519718770198</v>
@@ -2061,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0</v>
       </c>
@@ -2069,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>2215000000</v>
+        <v>2215</v>
       </c>
       <c r="D83">
         <v>11.557924021087565</v>
@@ -2081,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -2089,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>2230000000</v>
+        <v>2230</v>
       </c>
       <c r="D84">
         <v>11.555080742847579</v>
@@ -2101,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0</v>
       </c>
@@ -2109,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>2245000000</v>
+        <v>2245</v>
       </c>
       <c r="D85">
         <v>11.568247397890008</v>
@@ -2121,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0</v>
       </c>
@@ -2129,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>2260000000</v>
+        <v>2260</v>
       </c>
       <c r="D86">
         <v>11.535634336502046</v>
@@ -2141,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0</v>
       </c>
@@ -2149,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>2275000000</v>
+        <v>2275</v>
       </c>
       <c r="D87">
         <v>11.581226763238691</v>
@@ -2161,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0</v>
       </c>
@@ -2169,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>2290000000</v>
+        <v>2290</v>
       </c>
       <c r="D88">
         <v>11.554069313842177</v>
@@ -2181,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0</v>
       </c>
@@ -2189,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>2305000000</v>
+        <v>2305</v>
       </c>
       <c r="D89">
         <v>11.550242491964941</v>
@@ -2201,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0</v>
       </c>
@@ -2209,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>2320000000</v>
+        <v>2320</v>
       </c>
       <c r="D90">
         <v>11.5129575874649</v>
@@ -2221,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0</v>
       </c>
@@ -2229,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>2335000000</v>
+        <v>2335</v>
       </c>
       <c r="D91">
         <v>11.538316377974972</v>
@@ -2241,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2249,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>2350000000</v>
+        <v>2350</v>
       </c>
       <c r="D92">
         <v>11.479318986310776</v>
@@ -2261,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0</v>
       </c>
@@ -2269,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>2365000000</v>
+        <v>2365</v>
       </c>
       <c r="D93">
         <v>11.433614293329136</v>
@@ -2281,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0</v>
       </c>
@@ -2289,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>2380000000</v>
+        <v>2380</v>
       </c>
       <c r="D94">
         <v>11.318249142798024</v>
@@ -2301,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0</v>
       </c>
@@ -2309,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>2395000000</v>
+        <v>2395</v>
       </c>
       <c r="D95">
         <v>11.222153566783483</v>
@@ -2321,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0</v>
       </c>
@@ -2329,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>2410000000</v>
+        <v>2410</v>
       </c>
       <c r="D96">
         <v>11.045109274354452</v>
@@ -2341,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0</v>
       </c>
@@ -2349,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>2425000000</v>
+        <v>2425</v>
       </c>
       <c r="D97">
         <v>10.822664837808375</v>
@@ -2361,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0</v>
       </c>
@@ -2369,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>2440000000</v>
+        <v>2440</v>
       </c>
       <c r="D98">
         <v>10.630572512312575</v>
@@ -2381,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0</v>
       </c>
@@ -2389,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>2455000000</v>
+        <v>2455</v>
       </c>
       <c r="D99">
         <v>10.376365244458729</v>
@@ -2401,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0</v>
       </c>
@@ -2409,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>2470000000</v>
+        <v>2470</v>
       </c>
       <c r="D100">
         <v>10.089201768913435</v>
@@ -2421,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0</v>
       </c>
@@ -2429,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>2485000000</v>
+        <v>2485</v>
       </c>
       <c r="D101">
         <v>9.7715863685697482</v>
@@ -2441,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0</v>
       </c>
@@ -2449,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>2500000000</v>
+        <v>2500</v>
       </c>
       <c r="D102">
         <v>9.4765513927993172</v>
@@ -2461,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0</v>
       </c>
@@ -2469,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>2515000000</v>
+        <v>2515</v>
       </c>
       <c r="D103">
         <v>9.1654347265864864</v>
@@ -2481,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2489,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>2530000000</v>
+        <v>2530</v>
       </c>
       <c r="D104">
         <v>8.8951211045780259</v>
@@ -2501,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0</v>
       </c>
@@ -2509,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>2545000000</v>
+        <v>2545</v>
       </c>
       <c r="D105">
         <v>8.5752225561494431</v>
@@ -2521,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0</v>
       </c>
@@ -2529,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>2560000000</v>
+        <v>2560</v>
       </c>
       <c r="D106">
         <v>8.3014010398783267</v>
@@ -2541,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0</v>
       </c>
@@ -2549,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>2575000000</v>
+        <v>2575</v>
       </c>
       <c r="D107">
         <v>7.908105928856024</v>
@@ -2561,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0</v>
       </c>
@@ -2569,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>2590000000</v>
+        <v>2590</v>
       </c>
       <c r="D108">
         <v>7.4612317934304251</v>
@@ -2581,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0</v>
       </c>
@@ -2589,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>2605000000</v>
+        <v>2605</v>
       </c>
       <c r="D109">
         <v>6.8256480422483161</v>
@@ -2601,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0</v>
       </c>
@@ -2609,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>2620000000</v>
+        <v>2620</v>
       </c>
       <c r="D110">
         <v>6.0804665952257686</v>
@@ -2621,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0</v>
       </c>
@@ -2629,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>2635000000</v>
+        <v>2635</v>
       </c>
       <c r="D111">
         <v>5.2348326372048248</v>
@@ -2641,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0</v>
       </c>
@@ -2649,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>2650000000</v>
+        <v>2650</v>
       </c>
       <c r="D112">
         <v>4.3189535010424507</v>
@@ -2661,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0</v>
       </c>
@@ -2669,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>2665000000</v>
+        <v>2665</v>
       </c>
       <c r="D113">
         <v>3.1672845482029537</v>
@@ -2681,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0</v>
       </c>
@@ -2689,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>2680000000</v>
+        <v>2680</v>
       </c>
       <c r="D114">
         <v>2.1186760700697214</v>
@@ -2701,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0</v>
       </c>
@@ -2709,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>2695000000</v>
+        <v>2695</v>
       </c>
       <c r="D115">
         <v>1.1256527382703609</v>
@@ -2721,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0</v>
       </c>
@@ -2729,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>2710000000</v>
+        <v>2710</v>
       </c>
       <c r="D116">
         <v>-6.887450920786975E-2</v>
@@ -2741,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0</v>
       </c>
@@ -2749,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>2725000000</v>
+        <v>2725</v>
       </c>
       <c r="D117">
         <v>-1.313648098712271</v>
@@ -2761,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0</v>
       </c>
@@ -2769,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>2740000000</v>
+        <v>2740</v>
       </c>
       <c r="D118">
         <v>-1.6967428391560411</v>
@@ -2781,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0</v>
       </c>
@@ -2789,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>2755000000</v>
+        <v>2755</v>
       </c>
       <c r="D119">
         <v>-2.8759238658219815</v>
@@ -2801,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0</v>
       </c>
@@ -2809,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>2770000000</v>
+        <v>2770</v>
       </c>
       <c r="D120">
         <v>-2.2025792407474647</v>
@@ -2821,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0</v>
       </c>
@@ -2829,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>2785000000</v>
+        <v>2785</v>
       </c>
       <c r="D121">
         <v>-2.4427986678480522</v>
@@ -2841,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0</v>
       </c>
@@ -2849,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>2800000000</v>
+        <v>2800</v>
       </c>
       <c r="D122">
         <v>-2.3801508200652677</v>
@@ -2861,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0</v>
       </c>
@@ -2869,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>2815000000</v>
+        <v>2815</v>
       </c>
       <c r="D123">
         <v>-2.4356387221833593</v>
@@ -2881,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0</v>
       </c>
@@ -2889,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>2830000000</v>
+        <v>2830</v>
       </c>
       <c r="D124">
         <v>-1.6718316151678074</v>
@@ -2901,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0</v>
       </c>
@@ -2909,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>2845000000</v>
+        <v>2845</v>
       </c>
       <c r="D125">
         <v>-1.7359121412556497</v>
@@ -2921,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0</v>
       </c>
@@ -2929,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>2860000000</v>
+        <v>2860</v>
       </c>
       <c r="D126">
         <v>-0.39762324542302352</v>
@@ -2941,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0</v>
       </c>
@@ -2949,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>2875000000</v>
+        <v>2875</v>
       </c>
       <c r="D127">
         <v>0.56687720881945225</v>
@@ -2961,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0</v>
       </c>
@@ -2969,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>2890000000</v>
+        <v>2890</v>
       </c>
       <c r="D128">
         <v>1.5676158234643012</v>
@@ -2981,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -2989,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>2905000000</v>
+        <v>2905</v>
       </c>
       <c r="D129">
         <v>2.2689546073216498</v>
@@ -3001,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0</v>
       </c>
@@ -3009,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>2920000000</v>
+        <v>2920</v>
       </c>
       <c r="D130">
         <v>2.6709533687781395</v>
@@ -3021,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0</v>
       </c>
@@ -3029,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>2935000000</v>
+        <v>2935</v>
       </c>
       <c r="D131">
         <v>2.6723643811385074</v>
@@ -3041,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>0</v>
       </c>
@@ -3049,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>2950000000</v>
+        <v>2950</v>
       </c>
       <c r="D132">
         <v>2.7386623704713031</v>
@@ -3061,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0</v>
       </c>
@@ -3069,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>2965000000</v>
+        <v>2965</v>
       </c>
       <c r="D133">
         <v>2.7693866046741888</v>
@@ -3081,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0</v>
       </c>
@@ -3089,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>2980000000</v>
+        <v>2980</v>
       </c>
       <c r="D134">
         <v>3.1172901130670674</v>
@@ -3101,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0</v>
       </c>
@@ -3109,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>2995000000</v>
+        <v>2995</v>
       </c>
       <c r="D135">
         <v>3.4462199035535548</v>
@@ -3121,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0</v>
       </c>
@@ -3129,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>3010000000</v>
+        <v>3010</v>
       </c>
       <c r="D136">
         <v>4.1497833642205038</v>
@@ -3141,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0</v>
       </c>
@@ -3149,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>3025000000</v>
+        <v>3025</v>
       </c>
       <c r="D137">
         <v>4.0928566922037781</v>
@@ -3161,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0</v>
       </c>
@@ -3169,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>3040000000</v>
+        <v>3040</v>
       </c>
       <c r="D138">
         <v>3.0171088612426615</v>
@@ -3181,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>0</v>
       </c>
@@ -3189,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>3055000000</v>
+        <v>3055</v>
       </c>
       <c r="D139">
         <v>1.755393005188445</v>
@@ -3201,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0</v>
       </c>
@@ -3209,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>3070000000</v>
+        <v>3070</v>
       </c>
       <c r="D140">
         <v>0.50087336381299608</v>
@@ -3221,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>0</v>
       </c>
@@ -3229,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>3085000000</v>
+        <v>3085</v>
       </c>
       <c r="D141">
         <v>3.5211808753778939E-3</v>
@@ -3241,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>0</v>
       </c>
@@ -3249,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>3100000000</v>
+        <v>3100</v>
       </c>
       <c r="D142">
         <v>4.9275073042277739E-2</v>
@@ -3261,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0</v>
       </c>
@@ -3269,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>3115000000</v>
+        <v>3115</v>
       </c>
       <c r="D143">
         <v>0.54493990917727331</v>
@@ -3281,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0</v>
       </c>
@@ -3289,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <v>3130000000</v>
+        <v>3130</v>
       </c>
       <c r="D144">
         <v>0.31015804927016788</v>
@@ -3301,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0</v>
       </c>
@@ -3309,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="C145">
-        <v>3145000000</v>
+        <v>3145</v>
       </c>
       <c r="D145">
         <v>-0.39930352441988148</v>
@@ -3321,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0</v>
       </c>
@@ -3329,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>3160000000</v>
+        <v>3160</v>
       </c>
       <c r="D146">
         <v>-1.0943328002233379</v>
@@ -3341,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0</v>
       </c>
@@ -3349,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>3175000000</v>
+        <v>3175</v>
       </c>
       <c r="D147">
         <v>-1.0010484801303861</v>
@@ -3361,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0</v>
       </c>
@@ -3369,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>3190000000</v>
+        <v>3190</v>
       </c>
       <c r="D148">
         <v>-0.50993691796814389</v>
@@ -3381,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0</v>
       </c>
@@ -3389,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="C149">
-        <v>3205000000</v>
+        <v>3205</v>
       </c>
       <c r="D149">
         <v>0.84876858113626241</v>
@@ -3401,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0</v>
       </c>
@@ -3409,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>3220000000</v>
+        <v>3220</v>
       </c>
       <c r="D150">
         <v>1.4177261928527152</v>
@@ -3421,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0</v>
       </c>
@@ -3429,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>3235000000</v>
+        <v>3235</v>
       </c>
       <c r="D151">
         <v>0.9471807823337457</v>
@@ -3441,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0</v>
       </c>
@@ -3449,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>3250000000</v>
+        <v>3250</v>
       </c>
       <c r="D152">
         <v>7.6510307871007655E-2</v>
@@ -3461,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0</v>
       </c>
@@ -3469,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>3265000000</v>
+        <v>3265</v>
       </c>
       <c r="D153">
         <v>-0.23745115058484245</v>
@@ -3481,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0</v>
       </c>
@@ -3489,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>3280000000</v>
+        <v>3280</v>
       </c>
       <c r="D154">
         <v>0.19310082841275999</v>
@@ -3501,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0</v>
       </c>
@@ -3509,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>3295000000</v>
+        <v>3295</v>
       </c>
       <c r="D155">
         <v>0.20794730793434368</v>
@@ -3521,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>0</v>
       </c>
@@ -3529,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="C156">
-        <v>3310000000</v>
+        <v>3310</v>
       </c>
       <c r="D156">
         <v>0.68564966339675593</v>
@@ -3541,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>0</v>
       </c>
@@ -3549,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>3325000000</v>
+        <v>3325</v>
       </c>
       <c r="D157">
         <v>4.0053634371812308E-2</v>
@@ -3561,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>0</v>
       </c>
@@ -3569,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>3340000000</v>
+        <v>3340</v>
       </c>
       <c r="D158">
         <v>-0.65963233506101204</v>
@@ -3581,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>0</v>
       </c>
@@ -3589,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>3355000000</v>
+        <v>3355</v>
       </c>
       <c r="D159">
         <v>-0.96990058135595802</v>
@@ -3601,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>0</v>
       </c>
@@ -3609,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>3370000000</v>
+        <v>3370</v>
       </c>
       <c r="D160">
         <v>-1.0553170011748989</v>
@@ -3621,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>0</v>
       </c>
@@ -3629,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>3385000000</v>
+        <v>3385</v>
       </c>
       <c r="D161">
         <v>-0.49319114985857837</v>
@@ -3641,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>0</v>
       </c>
@@ -3649,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>3400000000</v>
+        <v>3400</v>
       </c>
       <c r="D162">
         <v>-0.93891456468825041</v>
@@ -3661,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>0</v>
       </c>
@@ -3669,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="C163">
-        <v>3415000000</v>
+        <v>3415</v>
       </c>
       <c r="D163">
         <v>-2.545129156647608</v>
@@ -3681,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>0</v>
       </c>
@@ -3689,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="C164">
-        <v>3430000000</v>
+        <v>3430</v>
       </c>
       <c r="D164">
         <v>-3.2268866452439191</v>
@@ -3701,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>0</v>
       </c>
@@ -3709,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="C165">
-        <v>3445000000</v>
+        <v>3445</v>
       </c>
       <c r="D165">
         <v>-3.2626020028811702</v>
@@ -3721,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -3729,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>3460000000</v>
+        <v>3460</v>
       </c>
       <c r="D166">
         <v>-3.6493479051669091</v>
@@ -3741,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>0</v>
       </c>
@@ -3749,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="C167">
-        <v>3475000000</v>
+        <v>3475</v>
       </c>
       <c r="D167">
         <v>-4.6044446115181543</v>
@@ -3761,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>0</v>
       </c>
@@ -3769,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>3490000000</v>
+        <v>3490</v>
       </c>
       <c r="D168">
         <v>-4.9204160092815883</v>
@@ -3781,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0</v>
       </c>
@@ -3789,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>3505000000</v>
+        <v>3505</v>
       </c>
       <c r="D169">
         <v>-8.3630647392889657</v>
@@ -3801,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0</v>
       </c>
@@ -3809,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="C170">
-        <v>3520000000</v>
+        <v>3520</v>
       </c>
       <c r="D170">
         <v>-8.3971069438227097</v>
@@ -3821,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>0</v>
       </c>
@@ -3829,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <v>3535000000</v>
+        <v>3535</v>
       </c>
       <c r="D171">
         <v>-6.4476354084746923</v>
@@ -3841,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>0</v>
       </c>
@@ -3849,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <v>3550000000</v>
+        <v>3550</v>
       </c>
       <c r="D172">
         <v>-7.0129127753133353</v>
@@ -3861,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>0</v>
       </c>
@@ -3869,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="C173">
-        <v>3565000000</v>
+        <v>3565</v>
       </c>
       <c r="D173">
         <v>-4.9713748139641822</v>
@@ -3881,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>0</v>
       </c>
@@ -3889,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="C174">
-        <v>3580000000</v>
+        <v>3580</v>
       </c>
       <c r="D174">
         <v>-9.1361597771994916</v>
@@ -3901,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0</v>
       </c>
@@ -3909,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>3595000000</v>
+        <v>3595</v>
       </c>
       <c r="D175">
         <v>-10.30343169756852</v>
@@ -3921,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>0</v>
       </c>
@@ -3929,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="C176">
-        <v>3610000000</v>
+        <v>3610</v>
       </c>
       <c r="D176">
         <v>-6.585622767121194</v>
@@ -3941,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0</v>
       </c>
@@ -3949,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="C177">
-        <v>3625000000</v>
+        <v>3625</v>
       </c>
       <c r="D177">
         <v>-7.1023089263102079</v>
@@ -3961,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0</v>
       </c>
@@ -3969,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="C178">
-        <v>3640000000</v>
+        <v>3640</v>
       </c>
       <c r="D178">
         <v>-5.191628238645869</v>
@@ -3981,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0</v>
       </c>
@@ -3989,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="C179">
-        <v>3655000000</v>
+        <v>3655</v>
       </c>
       <c r="D179">
         <v>-4.4973008511207802</v>
@@ -4001,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0</v>
       </c>
@@ -4009,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>3670000000</v>
+        <v>3670</v>
       </c>
       <c r="D180">
         <v>-4.0125214867489483</v>
@@ -4021,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>0</v>
       </c>
@@ -4029,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>3685000000</v>
+        <v>3685</v>
       </c>
       <c r="D181">
         <v>-4.0538005162289394</v>
@@ -4041,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>0</v>
       </c>
@@ -4049,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <v>3700000000</v>
+        <v>3700</v>
       </c>
       <c r="D182">
         <v>-3.8802043942349869</v>
@@ -4061,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0</v>
       </c>
@@ -4069,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="C183">
-        <v>3715000000</v>
+        <v>3715</v>
       </c>
       <c r="D183">
         <v>-2.6544725539122176</v>
@@ -4081,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>0</v>
       </c>
@@ -4089,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="C184">
-        <v>3730000000</v>
+        <v>3730</v>
       </c>
       <c r="D184">
         <v>-3.0912023552150174</v>
@@ -4101,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>0</v>
       </c>
@@ -4109,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="C185">
-        <v>3745000000</v>
+        <v>3745</v>
       </c>
       <c r="D185">
         <v>-3.0925238531558286</v>
@@ -4121,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>0</v>
       </c>
@@ -4129,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>3760000000</v>
+        <v>3760</v>
       </c>
       <c r="D186">
         <v>-2.9148112889721745</v>
@@ -4141,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0</v>
       </c>
@@ -4149,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="C187">
-        <v>3775000000</v>
+        <v>3775</v>
       </c>
       <c r="D187">
         <v>-5.0422368555618142</v>
@@ -4161,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>0</v>
       </c>
@@ -4169,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="C188">
-        <v>3790000000</v>
+        <v>3790</v>
       </c>
       <c r="D188">
         <v>-4.6515663726709988</v>
@@ -4181,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>0</v>
       </c>
@@ -4189,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="C189">
-        <v>3805000000</v>
+        <v>3805</v>
       </c>
       <c r="D189">
         <v>-3.7351442859655748</v>
@@ -4201,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0</v>
       </c>
@@ -4209,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>3820000000</v>
+        <v>3820</v>
       </c>
       <c r="D190">
         <v>-5.8656881855115444</v>
@@ -4221,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0</v>
       </c>
@@ -4229,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="C191">
-        <v>3835000000</v>
+        <v>3835</v>
       </c>
       <c r="D191">
         <v>-5.9233270168711023</v>
@@ -4241,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>0</v>
       </c>
@@ -4249,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>3850000000</v>
+        <v>3850</v>
       </c>
       <c r="D192">
         <v>-5.9391225497391389</v>
@@ -4261,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>0</v>
       </c>
@@ -4269,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>3865000000</v>
+        <v>3865</v>
       </c>
       <c r="D193">
         <v>-6.0109213023840304</v>
@@ -4281,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>0</v>
       </c>
@@ -4289,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="C194">
-        <v>3880000000</v>
+        <v>3880</v>
       </c>
       <c r="D194">
         <v>-6.6061305584576822</v>
@@ -4301,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>0</v>
       </c>
@@ -4309,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="C195">
-        <v>3895000000</v>
+        <v>3895</v>
       </c>
       <c r="D195">
         <v>-7.1478161048358615</v>
@@ -4321,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>0</v>
       </c>
@@ -4329,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="C196">
-        <v>3910000000</v>
+        <v>3910</v>
       </c>
       <c r="D196">
         <v>-6.1063562313680784</v>
@@ -4341,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>0</v>
       </c>
@@ -4349,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="C197">
-        <v>3925000000</v>
+        <v>3925</v>
       </c>
       <c r="D197">
         <v>-7.2238799894103138</v>
@@ -4361,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>0</v>
       </c>
@@ -4369,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="C198">
-        <v>3940000000</v>
+        <v>3940</v>
       </c>
       <c r="D198">
         <v>-10.695546306624863</v>
@@ -4381,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>0</v>
       </c>
@@ -4389,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="C199">
-        <v>3955000000</v>
+        <v>3955</v>
       </c>
       <c r="D199">
         <v>-7.8105070749890579</v>
@@ -4401,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>0</v>
       </c>
@@ -4409,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="C200">
-        <v>3970000000</v>
+        <v>3970</v>
       </c>
       <c r="D200">
         <v>-7.744290155765551</v>
@@ -4421,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>0</v>
       </c>
@@ -4429,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="C201">
-        <v>3985000000</v>
+        <v>3985</v>
       </c>
       <c r="D201">
         <v>-15.178357321338805</v>
@@ -4441,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -4449,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="C202">
-        <v>4000000000</v>
+        <v>4000</v>
       </c>
       <c r="D202">
         <v>-13.04473494610928</v>
